--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_008.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_008.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>39.6680519398541</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19.67877276288883</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.51645564237018</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.13022158370452</v>
+        <v>4.342719274285862</v>
       </c>
       <c r="G2" t="n">
-        <v>26.51368943687787</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.848218680247999</v>
+        <v>3.178247802323753</v>
       </c>
       <c r="I2" t="n">
-        <v>48.83188027860142</v>
+        <v>28.97337380828872</v>
       </c>
       <c r="J2" t="n">
-        <v>361.1770745638932</v>
+        <v>93.66264393622895</v>
       </c>
       <c r="K2" t="n">
-        <v>89.3500922900098</v>
+        <v>85.60557949547338</v>
       </c>
       <c r="L2" t="n">
-        <v>153.9862805518603</v>
+        <v>108.6789645893183</v>
       </c>
       <c r="M2" t="n">
-        <v>14.47169347622774</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>256.0576603872443</v>
+        <v>173.035897360352</v>
       </c>
       <c r="O2" t="n">
-        <v>37.82752207581799</v>
+        <v>77.8685917960933</v>
       </c>
       <c r="P2" t="n">
-        <v>131.0231214770769</v>
+        <v>73.55034943606074</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.25741609077373</v>
+        <v>132.8120172214393</v>
       </c>
       <c r="R2" t="n">
-        <v>199.0964877030092</v>
+        <v>53.53805334130362</v>
       </c>
       <c r="S2" t="n">
-        <v>55.40962112850737</v>
+        <v>43.58861165174818</v>
       </c>
       <c r="T2" t="n">
-        <v>47.66497449069881</v>
+        <v>78.04499233318592</v>
       </c>
       <c r="U2" t="n">
-        <v>43.40133043604023</v>
+        <v>42.10655188554283</v>
       </c>
       <c r="V2" t="n">
-        <v>67.20781388648103</v>
+        <v>50.97952907492353</v>
       </c>
       <c r="W2" t="n">
-        <v>129.5949858964357</v>
+        <v>56.38289887503826</v>
       </c>
       <c r="X2" t="n">
-        <v>58.98870754600075</v>
+        <v>79.60217680059489</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.66423771453358</v>
+        <v>66.65472417950866</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.0541258713386</v>
+        <v>85.24273528742424</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.71417886927509</v>
+        <v>124.670722312209</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.57732221976309</v>
+        <v>53.97124148553709</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.94992219412778</v>
+        <v>52.57820986488078</v>
       </c>
       <c r="AD2" t="n">
-        <v>201.6448574000923</v>
+        <v>80.5824153241619</v>
       </c>
       <c r="AE2" t="n">
-        <v>72.24278981340977</v>
+        <v>92.58576096025213</v>
       </c>
       <c r="AF2" t="n">
-        <v>154.083475481553</v>
+        <v>145.1644261081898</v>
       </c>
       <c r="AG2" t="n">
-        <v>57.22519413387973</v>
+        <v>167.9922140718514</v>
       </c>
       <c r="AH2" t="n">
-        <v>64.66348579647898</v>
+        <v>96.56849063782261</v>
       </c>
       <c r="AI2" t="n">
-        <v>140.9506988563734</v>
+        <v>99.11091436551906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>161.7614093551153</v>
+        <v>164.4734619196215</v>
       </c>
       <c r="AK2" t="n">
-        <v>50.85134108414097</v>
+        <v>59.08568945502459</v>
       </c>
       <c r="AL2" t="n">
-        <v>59.95059149815511</v>
+        <v>31.72571516850434</v>
       </c>
       <c r="AM2" t="n">
-        <v>36.34422773772415</v>
+        <v>45.62212652913072</v>
       </c>
       <c r="AN2" t="n">
-        <v>32.9728907228978</v>
+        <v>42.22473605331975</v>
       </c>
       <c r="AO2" t="n">
-        <v>20.91711271672686</v>
+        <v>25.46895168497834</v>
       </c>
       <c r="AP2" t="n">
-        <v>30.76701637752236</v>
+        <v>18.29511232702891</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10.54587374615452</v>
+        <v>19.70661331242671</v>
       </c>
       <c r="AR2" t="n">
-        <v>21.91524959220359</v>
+        <v>15.76919037533098</v>
       </c>
       <c r="AS2" t="n">
-        <v>36.73033963613866</v>
+        <v>20.41190671335729</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.6692718959211</v>
+        <v>10.51454154940541</v>
       </c>
       <c r="AU2" t="n">
-        <v>11.3833254041602</v>
+        <v>15.7016628894437</v>
       </c>
       <c r="AV2" t="n">
-        <v>19.95635694665233</v>
+        <v>21.86649178411488</v>
       </c>
       <c r="AW2" t="n">
-        <v>21.93372121652752</v>
+        <v>26.15635556322043</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.70506324987183</v>
+        <v>19.95836555895782</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9312715989535518</v>
+        <v>3.027230531976992</v>
       </c>
       <c r="D3" t="n">
-        <v>3.195229866633197</v>
+        <v>4.552421070778456</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5582519198120348</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9746199473636153</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.286198136093629</v>
+        <v>1.487969812305582</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.154372300408273</v>
       </c>
       <c r="I3" t="n">
-        <v>6.314053524889525</v>
+        <v>4.494403861875432</v>
       </c>
       <c r="J3" t="n">
-        <v>2.56099526712977</v>
+        <v>4.162010979271658</v>
       </c>
       <c r="K3" t="n">
-        <v>1.727311844749132</v>
+        <v>2.247191294372922</v>
       </c>
       <c r="L3" t="n">
-        <v>2.743219608883639</v>
+        <v>8.491251004940878</v>
       </c>
       <c r="M3" t="n">
-        <v>2.434001174859254</v>
+        <v>3.741489183132744</v>
       </c>
       <c r="N3" t="n">
-        <v>2.874090565692036</v>
+        <v>6.820783175979423</v>
       </c>
       <c r="O3" t="n">
-        <v>2.589950523496066</v>
+        <v>5.130904143611836</v>
       </c>
       <c r="P3" t="n">
-        <v>1.543385422339675</v>
+        <v>2.798991329949713</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.505777683377802</v>
+        <v>2.477532755536909</v>
       </c>
       <c r="R3" t="n">
-        <v>3.467610308866742</v>
+        <v>3.000898503507438</v>
       </c>
       <c r="S3" t="n">
-        <v>6.888396413157987</v>
+        <v>3.143896308881845</v>
       </c>
       <c r="T3" t="n">
-        <v>2.53714409351918</v>
+        <v>2.980529624711736</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.7147143384325645</v>
       </c>
       <c r="V3" t="n">
-        <v>3.42351677294327</v>
+        <v>2.852105985612339</v>
       </c>
       <c r="W3" t="n">
-        <v>6.132240370603733</v>
+        <v>2.961567538676667</v>
       </c>
       <c r="X3" t="n">
-        <v>1.88357456273156</v>
+        <v>6.598505782614897</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.164466778442245</v>
+        <v>1.637083363818208</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.850852079732074</v>
+        <v>10.05602719976382</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.263862919202033</v>
+        <v>1.653776890763757</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.069051940602654</v>
+        <v>5.386516194946827</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.644295384586053</v>
+        <v>3.611827704052096</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.603353359378552</v>
+        <v>3.913429611685743</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.948488674369991</v>
+        <v>6.265860749735888</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.165774078373945</v>
+        <v>6.513080569805319</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.041002664879778</v>
+        <v>3.274027060383094</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.104632367634347</v>
+        <v>7.259244735863128</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.98933592609639</v>
+        <v>7.92562592072646</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.010423617814205</v>
+        <v>2.89502232432742</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.247323389872973</v>
+        <v>3.806186186896768</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.407187325961937</v>
+        <v>5.11746394135668</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.585040255432113</v>
+        <v>5.515674478500294</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.727552970916064</v>
+        <v>3.827723417825208</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.041852804453137</v>
+        <v>8.03469206437453</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.606431127470123</v>
+        <v>2.34195388685686</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.664920837744493</v>
+        <v>2.160390196131582</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.676839161917476</v>
+        <v>3.351073958788251</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.524828077738356</v>
+        <v>3.073095125850806</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.93081045330356</v>
+        <v>3.897004519091734</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.039262827130249</v>
+        <v>4.751025600169962</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.180082292061316</v>
+        <v>7.117884750593491</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.598936462547466</v>
+        <v>4.906983831360967</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.163260465642785</v>
+        <v>2.499557380371382</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.326723962425785</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.96110017783508</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>44.71478234200524</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.81242354738952</v>
+        <v>14.24832360754835</v>
       </c>
       <c r="G4" t="n">
-        <v>3.772158245447729</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.953988339979697</v>
+        <v>19.58087940626161</v>
       </c>
       <c r="I4" t="n">
-        <v>13.80621368216134</v>
+        <v>109.0559925590346</v>
       </c>
       <c r="J4" t="n">
-        <v>93.22389446754319</v>
+        <v>215.7706054230271</v>
       </c>
       <c r="K4" t="n">
-        <v>44.30961990512525</v>
+        <v>16.99883287530362</v>
       </c>
       <c r="L4" t="n">
-        <v>62.22261018238333</v>
+        <v>5.764961138168759</v>
       </c>
       <c r="M4" t="n">
-        <v>19.59803927952385</v>
+        <v>69.95375173711771</v>
       </c>
       <c r="N4" t="n">
-        <v>2.382362424643313</v>
+        <v>116.94638764007</v>
       </c>
       <c r="O4" t="n">
-        <v>119.2276705853693</v>
+        <v>79.44170333741066</v>
       </c>
       <c r="P4" t="n">
-        <v>26.95267512256383</v>
+        <v>22.27217778574609</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.68745658266146</v>
+        <v>78.06917118561346</v>
       </c>
       <c r="R4" t="n">
-        <v>36.43758901503776</v>
+        <v>68.25639025764789</v>
       </c>
       <c r="S4" t="n">
-        <v>66.72724391734174</v>
+        <v>145.6305520367297</v>
       </c>
       <c r="T4" t="n">
-        <v>76.25382955894648</v>
+        <v>83.68505836215456</v>
       </c>
       <c r="U4" t="n">
-        <v>67.03425718621062</v>
+        <v>39.39497491751878</v>
       </c>
       <c r="V4" t="n">
-        <v>263.1209885336283</v>
+        <v>74.69903111107678</v>
       </c>
       <c r="W4" t="n">
-        <v>62.4116788782312</v>
+        <v>34.00405512767206</v>
       </c>
       <c r="X4" t="n">
-        <v>46.75793047217339</v>
+        <v>145.0694727551558</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.60660566549657</v>
+        <v>52.137399362368</v>
       </c>
       <c r="Z4" t="n">
-        <v>53.89225920147272</v>
+        <v>65.1930245752896</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.87211245501397</v>
+        <v>62.65400051344073</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.74274026615241</v>
+        <v>57.20054809652878</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.6084257172798</v>
+        <v>71.91621881579712</v>
       </c>
       <c r="AD4" t="n">
-        <v>87.91326738261311</v>
+        <v>86.69204459904429</v>
       </c>
       <c r="AE4" t="n">
-        <v>120.9008869440778</v>
+        <v>64.21272356070222</v>
       </c>
       <c r="AF4" t="n">
-        <v>93.5230070045091</v>
+        <v>53.23466136477994</v>
       </c>
       <c r="AG4" t="n">
-        <v>45.29115932090244</v>
+        <v>99.73568315314682</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.34139342759275</v>
+        <v>26.34309023082253</v>
       </c>
       <c r="AI4" t="n">
-        <v>104.8015448222453</v>
+        <v>40.59514467077884</v>
       </c>
       <c r="AJ4" t="n">
-        <v>74.284318077507</v>
+        <v>42.65253666591308</v>
       </c>
       <c r="AK4" t="n">
-        <v>34.5656924708939</v>
+        <v>47.82486214014756</v>
       </c>
       <c r="AL4" t="n">
-        <v>49.81491933705602</v>
+        <v>38.21229775967428</v>
       </c>
       <c r="AM4" t="n">
-        <v>48.05192940405464</v>
+        <v>7.405429800666728</v>
       </c>
       <c r="AN4" t="n">
-        <v>20.47660897356534</v>
+        <v>32.34351913062891</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.76048134043683</v>
+        <v>35.07484470060871</v>
       </c>
       <c r="AP4" t="n">
-        <v>15.87957012451689</v>
+        <v>14.93047469017572</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34.6958693202766</v>
+        <v>26.66245831537394</v>
       </c>
       <c r="AR4" t="n">
-        <v>35.20318431736047</v>
+        <v>10.88090611163868</v>
       </c>
       <c r="AS4" t="n">
-        <v>15.47930192477667</v>
+        <v>12.28278902569561</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.116441441377974</v>
+        <v>16.17483447059295</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.03492087420406</v>
+        <v>12.13712601564571</v>
       </c>
       <c r="AV4" t="n">
-        <v>16.07500552844847</v>
+        <v>11.06049754269991</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.370967803435068</v>
+        <v>16.63570590973281</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.228120361174188</v>
+        <v>9.130487807510184</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5539206875032</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26.5432836093211</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>63.86057906048399</v>
+        <v>8.2255060914714</v>
       </c>
       <c r="F5" t="n">
-        <v>19.20180084638234</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.97589230117405</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>102.697845517946</v>
+        <v>30.90016911136681</v>
       </c>
       <c r="I5" t="n">
-        <v>20.65482752917153</v>
+        <v>118.4679215717116</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.410346274039224</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98857351059362</v>
+        <v>6.217113545409271</v>
       </c>
       <c r="L5" t="n">
-        <v>131.7049315234783</v>
+        <v>22.82699644859265</v>
       </c>
       <c r="M5" t="n">
-        <v>9.782845150099515</v>
+        <v>66.92637414434432</v>
       </c>
       <c r="N5" t="n">
-        <v>51.30823931752526</v>
+        <v>45.91101121351283</v>
       </c>
       <c r="O5" t="n">
-        <v>59.11815869017166</v>
+        <v>204.6749674781117</v>
       </c>
       <c r="P5" t="n">
-        <v>79.70072268356903</v>
+        <v>46.69905913877641</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>59.73293530032828</v>
       </c>
       <c r="R5" t="n">
-        <v>43.93728962319969</v>
+        <v>201.9407664619426</v>
       </c>
       <c r="S5" t="n">
-        <v>13.94747572226695</v>
+        <v>34.79642522545441</v>
       </c>
       <c r="T5" t="n">
-        <v>48.56899366296658</v>
+        <v>28.52731455633452</v>
       </c>
       <c r="U5" t="n">
-        <v>49.07560088348695</v>
+        <v>15.68340323634943</v>
       </c>
       <c r="V5" t="n">
-        <v>63.97558034147305</v>
+        <v>21.41514019589942</v>
       </c>
       <c r="W5" t="n">
-        <v>58.29453506369812</v>
+        <v>24.27172837577248</v>
       </c>
       <c r="X5" t="n">
-        <v>21.27706726353876</v>
+        <v>18.43825213153372</v>
       </c>
       <c r="Y5" t="n">
-        <v>170.2083656087524</v>
+        <v>42.91719236358358</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.93114574925764</v>
+        <v>18.77020910197257</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.20739706136588</v>
+        <v>11.77053481117227</v>
       </c>
       <c r="AB5" t="n">
-        <v>39.61792451904013</v>
+        <v>46.36841139678455</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.68050144304945</v>
+        <v>47.89359737292646</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.17932781380438</v>
+        <v>72.09379015082774</v>
       </c>
       <c r="AE5" t="n">
-        <v>26.68721769480067</v>
+        <v>48.16781973502383</v>
       </c>
       <c r="AF5" t="n">
-        <v>61.36041405518235</v>
+        <v>18.50312694166523</v>
       </c>
       <c r="AG5" t="n">
-        <v>60.55879660705065</v>
+        <v>20.71917626538994</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.95328940540475</v>
+        <v>13.74915109877101</v>
       </c>
       <c r="AI5" t="n">
-        <v>38.54334488636857</v>
+        <v>1.077302947503176</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.62438246761705</v>
+        <v>37.61894971191271</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>19.2121925656867</v>
+        <v>23.26162578335009</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.50065017699178</v>
+        <v>13.29984108714378</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.87686342223912</v>
+        <v>8.364234826395592</v>
       </c>
       <c r="AO5" t="n">
-        <v>20.22631431818688</v>
+        <v>51.40800110384667</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.563304970255581</v>
+        <v>26.7100685369692</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.02908220565473</v>
+        <v>22.57059453125497</v>
       </c>
       <c r="AR5" t="n">
-        <v>47.15520184456408</v>
+        <v>13.33316248918048</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.497517873285098</v>
+        <v>23.18605944352057</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.803535625590304</v>
+        <v>23.74545003173421</v>
       </c>
       <c r="AU5" t="n">
-        <v>26.55914153573599</v>
+        <v>37.37446581657438</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>22.62212879427935</v>
       </c>
       <c r="AW5" t="n">
-        <v>25.38692967418578</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.149036358423629</v>
+        <v>23.48758583626209</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.386580562422634</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.560956535522953</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.592154839020942</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.897822080083825</v>
+        <v>2.518848999696504</v>
       </c>
       <c r="G6" t="n">
-        <v>7.029832799482514</v>
+        <v>17.96191050947234</v>
       </c>
       <c r="H6" t="n">
-        <v>37.91020208508893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.24759312200061</v>
+        <v>50.84801559169878</v>
       </c>
       <c r="J6" t="n">
-        <v>17.70590624291934</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>54.12844779202793</v>
+        <v>8.714478591666481</v>
       </c>
       <c r="L6" t="n">
-        <v>23.58264825927002</v>
+        <v>40.82171954915893</v>
       </c>
       <c r="M6" t="n">
-        <v>13.50269610758177</v>
+        <v>21.22417448516726</v>
       </c>
       <c r="N6" t="n">
-        <v>52.12659080323211</v>
+        <v>19.33423733554874</v>
       </c>
       <c r="O6" t="n">
-        <v>30.66968538372421</v>
+        <v>33.90429151806934</v>
       </c>
       <c r="P6" t="n">
-        <v>28.10639311430667</v>
+        <v>11.53228591548721</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.97715777616344</v>
+        <v>25.64755013136389</v>
       </c>
       <c r="R6" t="n">
-        <v>18.99178235759347</v>
+        <v>16.46145518578397</v>
       </c>
       <c r="S6" t="n">
-        <v>27.9306586299296</v>
+        <v>6.194173868579554</v>
       </c>
       <c r="T6" t="n">
-        <v>34.34335588917178</v>
+        <v>31.96272561278437</v>
       </c>
       <c r="U6" t="n">
-        <v>12.4489981204519</v>
+        <v>12.42741133929185</v>
       </c>
       <c r="V6" t="n">
-        <v>21.92106581589755</v>
+        <v>18.3001893770448</v>
       </c>
       <c r="W6" t="n">
-        <v>32.46098511598672</v>
+        <v>19.86208906487853</v>
       </c>
       <c r="X6" t="n">
-        <v>17.0783223150588</v>
+        <v>69.419216749388</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.506142584072829</v>
+        <v>19.00485813101235</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.67474844821099</v>
+        <v>18.51355862051023</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.14489407587795</v>
+        <v>17.83957091172335</v>
       </c>
       <c r="AB6" t="n">
-        <v>23.74946090541079</v>
+        <v>21.97630694086024</v>
       </c>
       <c r="AC6" t="n">
-        <v>26.12342430060615</v>
+        <v>21.16107521388863</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.915211013150544</v>
+        <v>15.02563001634103</v>
       </c>
       <c r="AE6" t="n">
-        <v>29.54925726356116</v>
+        <v>11.84907142331524</v>
       </c>
       <c r="AF6" t="n">
-        <v>26.45507899684246</v>
+        <v>15.60309576126354</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.08501148778475</v>
+        <v>4.171573063727261</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.22289130112829</v>
+        <v>11.087332064127</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.0272380492701</v>
+        <v>11.8444813621733</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.281075121439854</v>
+        <v>7.405726462955911</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.284674109603868</v>
+        <v>6.684041360743247</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.556045931614189</v>
+        <v>5.150065734211013</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.263453604970635</v>
+        <v>2.908321963324143</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.597605216827038</v>
+        <v>3.909223587874829</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.095657356784358</v>
+        <v>3.397221892464887</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.387564183362336</v>
+        <v>1.210546565497679</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.079191492072573</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.0781747683202</v>
+        <v>4.088807390245512</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.236321710931501</v>
+        <v>1.952780481493888</v>
       </c>
       <c r="AT6" t="n">
-        <v>11.46275698581938</v>
+        <v>1.312827639826537</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.987196554689384</v>
+        <v>1.875683158219837</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.225611732097963</v>
+        <v>1.133359576740578</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.972200759619327</v>
+        <v>0.000457355941456794</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.66157134234824</v>
+        <v>3.73131477280046</v>
       </c>
     </row>
     <row r="7">
@@ -1456,145 +1456,145 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.198961249771979</v>
+        <v>13.14185562526466</v>
       </c>
       <c r="E7" t="n">
-        <v>18.32769437033233</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67.24000973075164</v>
+        <v>1.594374369009284</v>
       </c>
       <c r="G7" t="n">
-        <v>18.98492789780141</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1817223364619136</v>
       </c>
       <c r="I7" t="n">
-        <v>7.264357077662737</v>
+        <v>34.42063655608047</v>
       </c>
       <c r="J7" t="n">
-        <v>30.23856861208144</v>
+        <v>22.60159000552471</v>
       </c>
       <c r="K7" t="n">
-        <v>32.05940648916324</v>
+        <v>27.75710882593565</v>
       </c>
       <c r="L7" t="n">
-        <v>47.935537725129</v>
+        <v>28.92935690970021</v>
       </c>
       <c r="M7" t="n">
-        <v>24.79142162557255</v>
+        <v>56.67996264089594</v>
       </c>
       <c r="N7" t="n">
-        <v>47.51296082118346</v>
+        <v>56.65768527459669</v>
       </c>
       <c r="O7" t="n">
-        <v>39.70614737396341</v>
+        <v>39.73099880102033</v>
       </c>
       <c r="P7" t="n">
-        <v>25.61072324968294</v>
+        <v>45.75780529920037</v>
       </c>
       <c r="Q7" t="n">
-        <v>121.4120580910257</v>
+        <v>55.8446970086526</v>
       </c>
       <c r="R7" t="n">
-        <v>72.96581446887743</v>
+        <v>30.61186169932745</v>
       </c>
       <c r="S7" t="n">
-        <v>27.12764466839812</v>
+        <v>11.51645404612366</v>
       </c>
       <c r="T7" t="n">
-        <v>39.60485639801783</v>
+        <v>9.258473706649324</v>
       </c>
       <c r="U7" t="n">
-        <v>40.82097176750885</v>
+        <v>28.41829122559488</v>
       </c>
       <c r="V7" t="n">
-        <v>13.73229868415694</v>
+        <v>42.27628088056147</v>
       </c>
       <c r="W7" t="n">
-        <v>7.376057886923664</v>
+        <v>27.7661390805206</v>
       </c>
       <c r="X7" t="n">
-        <v>43.17320730718647</v>
+        <v>4.360276063424495</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.19498663968551</v>
+        <v>12.34499482958317</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.59847252197634</v>
+        <v>30.8469186699959</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.63670250582763</v>
+        <v>9.539592624823346</v>
       </c>
       <c r="AB7" t="n">
-        <v>25.84479217873811</v>
+        <v>15.16259537988557</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.62925774867758</v>
+        <v>5.632924840509109</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.016850145407089</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.329282079747284</v>
+        <v>1.537982579951971</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.1538541419189</v>
+        <v>6.068007734093429</v>
       </c>
       <c r="AG7" t="n">
-        <v>28.39177250860926</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.577358202210287</v>
       </c>
       <c r="AI7" t="n">
-        <v>35.19580049379379</v>
+        <v>8.571547064730263</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.234829083413075</v>
+        <v>4.970636809977563</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.60835822418794</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.542802758297385</v>
+        <v>0.1964012518490739</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.027467925567343</v>
+        <v>5.533991581091491</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.559279446731131</v>
+        <v>13.71096127799032</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.78537079122621</v>
+        <v>21.77013794183837</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7537233706382909</v>
+        <v>0.9866134431327889</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16.35565005677219</v>
+        <v>5.222226021703181</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>19.14964505674785</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.790690903559613</v>
+        <v>11.31573652107474</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>5.411616702029439</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.510664270066602</v>
+        <v>10.72707099547625</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.205172947046608</v>
+        <v>9.146230544668041</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>14.6157655200487</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.7207072890867</v>
+        <v>13.65113371609561</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>24.59756106672926</v>
+        <v>10.09445071228125</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38145752739496</v>
+        <v>85.55435141931184</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91909539199574</v>
+        <v>13.20223881743069</v>
       </c>
       <c r="F8" t="n">
-        <v>22.26019464760738</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.443100481521567</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>28.44517763384847</v>
+        <v>34.26608372483067</v>
       </c>
       <c r="I8" t="n">
-        <v>18.70339900589579</v>
+        <v>48.42935587374543</v>
       </c>
       <c r="J8" t="n">
-        <v>26.19941996928413</v>
+        <v>132.3851581489045</v>
       </c>
       <c r="K8" t="n">
-        <v>38.8013063607975</v>
+        <v>83.64267364403258</v>
       </c>
       <c r="L8" t="n">
-        <v>63.00820824797128</v>
+        <v>126.9560880506478</v>
       </c>
       <c r="M8" t="n">
-        <v>116.7329509824674</v>
+        <v>353.9169406574337</v>
       </c>
       <c r="N8" t="n">
-        <v>118.0592762553181</v>
+        <v>63.06972328686615</v>
       </c>
       <c r="O8" t="n">
-        <v>133.4272640169495</v>
+        <v>111.1076395989972</v>
       </c>
       <c r="P8" t="n">
-        <v>38.38936040838986</v>
+        <v>44.03624086172893</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.41386278127554</v>
+        <v>200.8149788744921</v>
       </c>
       <c r="R8" t="n">
-        <v>39.02930874339352</v>
+        <v>42.12395435453069</v>
       </c>
       <c r="S8" t="n">
-        <v>111.8458154284259</v>
+        <v>51.02879313384427</v>
       </c>
       <c r="T8" t="n">
-        <v>33.06329689103111</v>
+        <v>55.38996938573978</v>
       </c>
       <c r="U8" t="n">
-        <v>35.78566934157823</v>
+        <v>274.1940290134481</v>
       </c>
       <c r="V8" t="n">
-        <v>49.39040084038269</v>
+        <v>27.72796358265317</v>
       </c>
       <c r="W8" t="n">
-        <v>42.70041283902253</v>
+        <v>135.8873033960089</v>
       </c>
       <c r="X8" t="n">
-        <v>107.9790138589486</v>
+        <v>66.13399442759732</v>
       </c>
       <c r="Y8" t="n">
-        <v>71.96028880914066</v>
+        <v>205.9760221315614</v>
       </c>
       <c r="Z8" t="n">
-        <v>101.2528212773926</v>
+        <v>44.5075105292908</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.0142045010418</v>
+        <v>59.44231437926842</v>
       </c>
       <c r="AB8" t="n">
-        <v>55.71759120600568</v>
+        <v>41.62998026823372</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.3958745585188</v>
+        <v>95.82012197784654</v>
       </c>
       <c r="AD8" t="n">
-        <v>100.8385930966346</v>
+        <v>147.0109059954459</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.899961927807279</v>
+        <v>120.6338756466407</v>
       </c>
       <c r="AF8" t="n">
-        <v>139.6594862391358</v>
+        <v>163.7944553939747</v>
       </c>
       <c r="AG8" t="n">
-        <v>43.74209962175766</v>
+        <v>106.3286510766487</v>
       </c>
       <c r="AH8" t="n">
-        <v>74.3604470749641</v>
+        <v>16.85938055683355</v>
       </c>
       <c r="AI8" t="n">
-        <v>99.769588162269</v>
+        <v>61.36967209354567</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51.93690885804338</v>
+        <v>20.08858953493298</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.53132885317234</v>
+        <v>33.58391007667315</v>
       </c>
       <c r="AL8" t="n">
-        <v>59.53811129044388</v>
+        <v>45.04171949363179</v>
       </c>
       <c r="AM8" t="n">
-        <v>104.2114526625398</v>
+        <v>24.52867363081856</v>
       </c>
       <c r="AN8" t="n">
-        <v>34.28084545841136</v>
+        <v>54.6041672436623</v>
       </c>
       <c r="AO8" t="n">
-        <v>33.00829179407642</v>
+        <v>54.70326856579808</v>
       </c>
       <c r="AP8" t="n">
-        <v>25.72192599195633</v>
+        <v>23.76631327050393</v>
       </c>
       <c r="AQ8" t="n">
-        <v>36.34676203309846</v>
+        <v>27.16881050032063</v>
       </c>
       <c r="AR8" t="n">
-        <v>26.52953144804281</v>
+        <v>11.31820721895195</v>
       </c>
       <c r="AS8" t="n">
-        <v>23.22299454914022</v>
+        <v>18.15335390067758</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.89016393123583</v>
+        <v>17.6197609871747</v>
       </c>
       <c r="AU8" t="n">
-        <v>26.58281552989226</v>
+        <v>24.31891605365589</v>
       </c>
       <c r="AV8" t="n">
-        <v>9.170690906432968</v>
+        <v>23.44291637365433</v>
       </c>
       <c r="AW8" t="n">
-        <v>28.79012314609998</v>
+        <v>18.83229705659347</v>
       </c>
       <c r="AX8" t="n">
-        <v>21.26276680864435</v>
+        <v>24.00824864724293</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.158737934353125</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.218319765641</v>
+        <v>3.562691535601662</v>
       </c>
       <c r="E9" t="n">
-        <v>3.504138519983731</v>
+        <v>3.711032143665916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1102054581260572</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.007313941403532</v>
+        <v>1.699124551944154</v>
       </c>
       <c r="H9" t="n">
-        <v>3.665654453673622</v>
+        <v>0.5122134980413944</v>
       </c>
       <c r="I9" t="n">
-        <v>3.585785449359342</v>
+        <v>2.99822257494268</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.962869745007265</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7602456295176928</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3357037020287071</v>
+        <v>6.216624609963715</v>
       </c>
       <c r="M9" t="n">
-        <v>3.487284437424169</v>
+        <v>5.073544676483841</v>
       </c>
       <c r="N9" t="n">
-        <v>7.585161382654901</v>
+        <v>3.25611526326739</v>
       </c>
       <c r="O9" t="n">
-        <v>8.140481161923951</v>
+        <v>0.5880448163499616</v>
       </c>
       <c r="P9" t="n">
-        <v>1.320974611511518</v>
+        <v>2.344615263463826</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.221386139693372</v>
+        <v>2.048557081333565</v>
       </c>
       <c r="R9" t="n">
-        <v>3.666527313285163</v>
+        <v>3.758790580277004</v>
       </c>
       <c r="S9" t="n">
-        <v>4.031493324575158</v>
+        <v>9.476932796561792</v>
       </c>
       <c r="T9" t="n">
-        <v>2.897977088932583</v>
+        <v>4.492598260133489</v>
       </c>
       <c r="U9" t="n">
-        <v>4.216275080505518</v>
+        <v>2.485529360200552</v>
       </c>
       <c r="V9" t="n">
-        <v>6.074094873246323</v>
+        <v>6.168083690343585</v>
       </c>
       <c r="W9" t="n">
-        <v>1.521548802334724</v>
+        <v>2.678860438868433</v>
       </c>
       <c r="X9" t="n">
-        <v>4.409721635046951</v>
+        <v>2.892845768632483</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.190884675206759</v>
+        <v>1.713755492823984</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.403523897782919</v>
+        <v>5.309322629732535</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.186759730782899</v>
+        <v>4.98924779739569</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.336687828564123</v>
+        <v>4.325582512131206</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.654757505664007</v>
+        <v>8.005003956581451</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.741662658486129</v>
+        <v>5.327936138126815</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.407639417502075</v>
+        <v>3.244077191543482</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.631770181837808</v>
+        <v>4.165182578763538</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.648662599270476</v>
+        <v>11.24275916206515</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.498906052530194</v>
+        <v>3.186341274704005</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.781407826573441</v>
+        <v>7.053164076548676</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.576990522296505</v>
+        <v>4.278926068602358</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.269065031254191</v>
+        <v>1.341781491586223</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.98135511127609</v>
+        <v>4.366920916816349</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.931163538445011</v>
+        <v>4.674949038181175</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.301259736737968</v>
+        <v>2.75432387079365</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.30640132744671</v>
+        <v>2.544167286482149</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.097738533187457</v>
+        <v>3.940746885184565</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.2532623166258</v>
+        <v>4.374567601489613</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7184560172720456</v>
+        <v>3.257838962545145</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.303728049673617</v>
+        <v>1.250423620986599</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.621448467236336</v>
+        <v>2.157555505165837</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.406892693210666</v>
+        <v>1.688727951620534</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.938814738386687</v>
+        <v>2.929823932670773</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.609468984505988</v>
+        <v>1.484119499404433</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.864859423875629</v>
+        <v>5.325772549824695</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>14.16232886294169</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.46965018566664</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.668901109009366</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.17617457122096</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.99063010810332</v>
+        <v>27.95788454353163</v>
       </c>
       <c r="H10" t="n">
-        <v>13.38877587789676</v>
+        <v>111.6200511986462</v>
       </c>
       <c r="I10" t="n">
-        <v>25.17452486846179</v>
+        <v>5.637710097440085</v>
       </c>
       <c r="J10" t="n">
-        <v>24.46847691031933</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>16.40797091072264</v>
       </c>
       <c r="L10" t="n">
-        <v>18.30115343451902</v>
+        <v>29.24074468994471</v>
       </c>
       <c r="M10" t="n">
-        <v>39.62018729961367</v>
+        <v>291.0576160924343</v>
       </c>
       <c r="N10" t="n">
-        <v>8.167912458977128</v>
+        <v>69.2524244021925</v>
       </c>
       <c r="O10" t="n">
-        <v>41.14751187868073</v>
+        <v>63.01339796266105</v>
       </c>
       <c r="P10" t="n">
-        <v>36.77845600807578</v>
+        <v>81.98774107215316</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.80878290556201</v>
+        <v>124.4580505803755</v>
       </c>
       <c r="R10" t="n">
-        <v>93.4232182467036</v>
+        <v>61.06517642132737</v>
       </c>
       <c r="S10" t="n">
-        <v>35.71164467345451</v>
+        <v>34.11786786790108</v>
       </c>
       <c r="T10" t="n">
-        <v>135.6165900086355</v>
+        <v>85.72750245903165</v>
       </c>
       <c r="U10" t="n">
-        <v>84.4260869426316</v>
+        <v>36.49488602344217</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2910012230442</v>
+        <v>56.76237879560385</v>
       </c>
       <c r="W10" t="n">
-        <v>28.87986388360099</v>
+        <v>105.0432053075507</v>
       </c>
       <c r="X10" t="n">
-        <v>93.24088076101621</v>
+        <v>71.71845834953029</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.27103196512416</v>
+        <v>36.60361012930716</v>
       </c>
       <c r="Z10" t="n">
-        <v>51.60292281106331</v>
+        <v>44.44035530177503</v>
       </c>
       <c r="AA10" t="n">
-        <v>44.66623724028518</v>
+        <v>47.31990331687999</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.07319399841526</v>
+        <v>70.49352137098722</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.6827552345761</v>
+        <v>61.58077752322175</v>
       </c>
       <c r="AD10" t="n">
-        <v>75.51908413139121</v>
+        <v>98.36678417553343</v>
       </c>
       <c r="AE10" t="n">
-        <v>132.6914120380862</v>
+        <v>70.62722131997138</v>
       </c>
       <c r="AF10" t="n">
-        <v>99.56088692627232</v>
+        <v>61.44307484954703</v>
       </c>
       <c r="AG10" t="n">
-        <v>43.08155335662768</v>
+        <v>49.04481655856381</v>
       </c>
       <c r="AH10" t="n">
-        <v>70.50883942295262</v>
+        <v>26.62065289812952</v>
       </c>
       <c r="AI10" t="n">
-        <v>26.48460326820557</v>
+        <v>94.61781773235072</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24.75280469151227</v>
+        <v>68.52662700781704</v>
       </c>
       <c r="AK10" t="n">
-        <v>52.67171516712488</v>
+        <v>39.2159715718252</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.900639837983393</v>
+        <v>56.18432470665952</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.64599984909798</v>
+        <v>37.31395526656934</v>
       </c>
       <c r="AN10" t="n">
-        <v>30.07313211062087</v>
+        <v>33.10312274900335</v>
       </c>
       <c r="AO10" t="n">
-        <v>26.99507118663986</v>
+        <v>26.97368754518841</v>
       </c>
       <c r="AP10" t="n">
-        <v>13.41496200692728</v>
+        <v>17.41202733503703</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24.13669428052256</v>
+        <v>31.84153442952453</v>
       </c>
       <c r="AR10" t="n">
-        <v>15.77845109793547</v>
+        <v>11.23685605325023</v>
       </c>
       <c r="AS10" t="n">
-        <v>7.460423628516297</v>
+        <v>17.69740301274945</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.27978593478422</v>
+        <v>9.922015713882004</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.801680187462217</v>
+        <v>14.1744414803043</v>
       </c>
       <c r="AV10" t="n">
-        <v>16.32427518385531</v>
+        <v>10.68377048256063</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.929854358876414</v>
+        <v>27.48523851549179</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.973118659301768</v>
+        <v>11.49989679039518</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6.156349019841273</v>
+        <v>26.62170819153973</v>
       </c>
       <c r="D11" t="n">
-        <v>22.33317566632255</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>21.2699132712461</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.99976543517533</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.693336012220778</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.420512148634224</v>
+        <v>11.20467789178419</v>
       </c>
       <c r="I11" t="n">
-        <v>16.17402493699441</v>
+        <v>33.61914637204408</v>
       </c>
       <c r="J11" t="n">
-        <v>210.9451347389545</v>
+        <v>68.01085964942045</v>
       </c>
       <c r="K11" t="n">
-        <v>11.67951717944958</v>
+        <v>42.45437076015073</v>
       </c>
       <c r="L11" t="n">
-        <v>49.3465735201945</v>
+        <v>52.81264826130377</v>
       </c>
       <c r="M11" t="n">
-        <v>7.052742452091113</v>
+        <v>10.00943641125467</v>
       </c>
       <c r="N11" t="n">
-        <v>60.88439036141299</v>
+        <v>36.26159238750635</v>
       </c>
       <c r="O11" t="n">
-        <v>105.1326293256125</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>45.12882720930723</v>
+        <v>68.06721818994566</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.43506606650803</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>103.5443832178577</v>
+        <v>10.08065877306229</v>
       </c>
       <c r="S11" t="n">
-        <v>83.9908681417957</v>
+        <v>163.9362417704433</v>
       </c>
       <c r="T11" t="n">
-        <v>71.35474841547443</v>
+        <v>13.66323962682215</v>
       </c>
       <c r="U11" t="n">
-        <v>40.91238502822048</v>
+        <v>155.1670223937617</v>
       </c>
       <c r="V11" t="n">
-        <v>33.33521297709942</v>
+        <v>43.85728223625057</v>
       </c>
       <c r="W11" t="n">
-        <v>10.53777238706193</v>
+        <v>23.40504140456983</v>
       </c>
       <c r="X11" t="n">
-        <v>31.63129360745298</v>
+        <v>31.58258228237223</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.1433978448614</v>
+        <v>0.8318786783429253</v>
       </c>
       <c r="Z11" t="n">
-        <v>36.82161357904908</v>
+        <v>17.17013382909909</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.85464652378373</v>
+        <v>34.0534034280228</v>
       </c>
       <c r="AB11" t="n">
-        <v>41.645103910114</v>
+        <v>26.43945879333198</v>
       </c>
       <c r="AC11" t="n">
-        <v>28.79587918056805</v>
+        <v>29.40725705271029</v>
       </c>
       <c r="AD11" t="n">
-        <v>24.03738624500404</v>
+        <v>23.9798265129058</v>
       </c>
       <c r="AE11" t="n">
-        <v>66.31538736799622</v>
+        <v>33.84337751107024</v>
       </c>
       <c r="AF11" t="n">
-        <v>46.16620199496874</v>
+        <v>13.27321864557631</v>
       </c>
       <c r="AG11" t="n">
-        <v>26.63915004393371</v>
+        <v>38.07366841441264</v>
       </c>
       <c r="AH11" t="n">
-        <v>21.75639105732908</v>
+        <v>24.79525072739654</v>
       </c>
       <c r="AI11" t="n">
-        <v>17.2096914550939</v>
+        <v>2.194993379445553</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.19469978096554</v>
+        <v>3.32389195120496</v>
       </c>
       <c r="AK11" t="n">
-        <v>53.50990185823063</v>
+        <v>22.75780380361862</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.0120909172562</v>
+        <v>16.53870152013671</v>
       </c>
       <c r="AM11" t="n">
-        <v>41.8713883462462</v>
+        <v>20.72013049943908</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.351137150713569</v>
+        <v>11.60687559799487</v>
       </c>
       <c r="AO11" t="n">
-        <v>38.1493392379567</v>
+        <v>32.69675265393604</v>
       </c>
       <c r="AP11" t="n">
-        <v>19.15443494911717</v>
+        <v>6.714632602711578</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27.11652349428203</v>
+        <v>21.7980704746501</v>
       </c>
       <c r="AR11" t="n">
-        <v>21.73766854528395</v>
+        <v>26.42681530532132</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>37.09616271066838</v>
       </c>
       <c r="AT11" t="n">
-        <v>10.25357469541745</v>
+        <v>5.27994526908582</v>
       </c>
       <c r="AU11" t="n">
-        <v>25.17164420332249</v>
+        <v>15.60235385753561</v>
       </c>
       <c r="AV11" t="n">
-        <v>20.76092304457596</v>
+        <v>8.534853182443177</v>
       </c>
       <c r="AW11" t="n">
-        <v>30.1218594332194</v>
+        <v>27.55211863660561</v>
       </c>
       <c r="AX11" t="n">
-        <v>24.87091411539414</v>
+        <v>11.30322682550751</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.115105018773516</v>
+        <v>7.974557473842517</v>
       </c>
       <c r="D12" t="n">
-        <v>3.429366868238618</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>19.62407489302044</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.500122413420065</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13.23142847630272</v>
+        <v>8.302557879536664</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.22299840210189</v>
       </c>
       <c r="I12" t="n">
-        <v>18.86955628366199</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.32623090974546</v>
+        <v>42.03886605253022</v>
       </c>
       <c r="K12" t="n">
-        <v>16.29202161000316</v>
+        <v>36.4171456041594</v>
       </c>
       <c r="L12" t="n">
-        <v>14.44523279455639</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>60.59516609810408</v>
+        <v>44.34118461802819</v>
       </c>
       <c r="N12" t="n">
-        <v>31.57814771002381</v>
+        <v>50.998752080512</v>
       </c>
       <c r="O12" t="n">
-        <v>29.69773898158644</v>
+        <v>19.0129618131063</v>
       </c>
       <c r="P12" t="n">
-        <v>79.01673387658904</v>
+        <v>20.24117308996289</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.51630311300231</v>
+        <v>10.52209093027258</v>
       </c>
       <c r="R12" t="n">
-        <v>35.07188224112737</v>
+        <v>30.40846513415279</v>
       </c>
       <c r="S12" t="n">
-        <v>34.03519241133454</v>
+        <v>14.9251138727684</v>
       </c>
       <c r="T12" t="n">
-        <v>13.87793332433447</v>
+        <v>14.95956514856092</v>
       </c>
       <c r="U12" t="n">
-        <v>21.44635531814947</v>
+        <v>30.36942132411049</v>
       </c>
       <c r="V12" t="n">
-        <v>16.93047200819379</v>
+        <v>7.170416526811035</v>
       </c>
       <c r="W12" t="n">
-        <v>30.49199338806034</v>
+        <v>51.85366512750127</v>
       </c>
       <c r="X12" t="n">
-        <v>6.124146072778898</v>
+        <v>91.62352757871041</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.66004014244272</v>
+        <v>16.55386226827263</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.38382208339945</v>
+        <v>56.86802413870804</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.91526541178792</v>
+        <v>13.43629433721502</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.61270163290064</v>
+        <v>14.9645936095514</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.92898628092596</v>
+        <v>29.25657493183722</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.01077851936687</v>
+        <v>10.10373816902703</v>
       </c>
       <c r="AE12" t="n">
-        <v>26.4198460663494</v>
+        <v>14.47938827628793</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.02998968736166</v>
+        <v>21.45326022833344</v>
       </c>
       <c r="AG12" t="n">
-        <v>24.30333063803303</v>
+        <v>11.25482479923749</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.428214035155537</v>
+        <v>17.30526117059288</v>
       </c>
       <c r="AI12" t="n">
-        <v>29.07427746150892</v>
+        <v>11.07176442759748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.890368747986123</v>
+        <v>43.41645060081883</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.504326375639064</v>
+        <v>2.032259611085831</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.373340392224689</v>
+        <v>26.77323588709458</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.131010184994587</v>
+        <v>2.23165143393044</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.363172359790985</v>
+        <v>4.62005548357652</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.048602399449344</v>
+        <v>1.345459319003314</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.933224961777073</v>
+        <v>3.59663642061597</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.208696675428214</v>
+        <v>3.185776682472031</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.966648601328548</v>
+        <v>2.525705182110592</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.573343393957253</v>
+        <v>3.007024078298108</v>
       </c>
       <c r="AT12" t="n">
-        <v>6.273315459510966</v>
+        <v>3.146371135725418</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.534914101124325</v>
+        <v>1.609760898350944</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>13.12506426721411</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.034535693583033</v>
+        <v>1.763657352607006</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.592220960850393</v>
+        <v>2.82881370607567</v>
       </c>
     </row>
     <row r="13">
@@ -2368,145 +2368,145 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.810275135126819</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.614558311379151</v>
+        <v>22.36051350496891</v>
       </c>
       <c r="G13" t="n">
-        <v>0.678043399242231</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.247676362765874</v>
+        <v>10.85134961201214</v>
       </c>
       <c r="I13" t="n">
-        <v>95.45575598502583</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.01938548128789</v>
+        <v>6.221173361130445</v>
       </c>
       <c r="K13" t="n">
-        <v>3.403299888098007</v>
+        <v>33.41420033719315</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11738624804278</v>
+        <v>33.07686353036203</v>
       </c>
       <c r="M13" t="n">
-        <v>42.89315627195683</v>
+        <v>34.49266002504957</v>
       </c>
       <c r="N13" t="n">
-        <v>10.59878621309064</v>
+        <v>25.60655280687089</v>
       </c>
       <c r="O13" t="n">
-        <v>39.21602023002774</v>
+        <v>16.80204230103363</v>
       </c>
       <c r="P13" t="n">
-        <v>25.16436506213726</v>
+        <v>117.3424406785728</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.52284168348266</v>
+        <v>30.7131425417102</v>
       </c>
       <c r="R13" t="n">
-        <v>34.68668190108864</v>
+        <v>26.83475994225744</v>
       </c>
       <c r="S13" t="n">
-        <v>35.49587105560953</v>
+        <v>21.11266047340994</v>
       </c>
       <c r="T13" t="n">
-        <v>12.30535544002814</v>
+        <v>3.877858554986187</v>
       </c>
       <c r="U13" t="n">
-        <v>30.88150788774958</v>
+        <v>2.455036307299299</v>
       </c>
       <c r="V13" t="n">
-        <v>40.73606880183318</v>
+        <v>3.634517362815449</v>
       </c>
       <c r="W13" t="n">
-        <v>12.39820162597774</v>
+        <v>10.47213374851815</v>
       </c>
       <c r="X13" t="n">
-        <v>3.330508235508593</v>
+        <v>20.03786004742081</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.67631831286181</v>
+        <v>133.9288264413116</v>
       </c>
       <c r="Z13" t="n">
-        <v>39.21200001324448</v>
+        <v>10.88303811861566</v>
       </c>
       <c r="AA13" t="n">
-        <v>55.75966642905168</v>
+        <v>3.289174718476247</v>
       </c>
       <c r="AB13" t="n">
-        <v>32.69576939083414</v>
+        <v>14.44947763618003</v>
       </c>
       <c r="AC13" t="n">
-        <v>23.94481655590875</v>
+        <v>35.97742040078169</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.16830247778523</v>
+        <v>6.679944762606006</v>
       </c>
       <c r="AE13" t="n">
-        <v>25.90694166057357</v>
+        <v>4.926240710459964</v>
       </c>
       <c r="AF13" t="n">
-        <v>27.18227393167946</v>
+        <v>4.660067639389534</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.938129084813241</v>
+        <v>4.145306091071617</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.685500810923076</v>
+        <v>2.009185299742973</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.06192118939062</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.64879425045581</v>
+        <v>5.099631533901351</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.03079148593507</v>
+        <v>0.2089463104055365</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.609553504744296</v>
+        <v>10.69419864261</v>
       </c>
       <c r="AM13" t="n">
-        <v>12.21730018405936</v>
+        <v>2.33662602523955</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.535316793027855</v>
+        <v>5.379745772729605</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.71482360129551</v>
+        <v>15.35521508410323</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.61400478337357</v>
+        <v>16.88346996393357</v>
       </c>
       <c r="AR13" t="n">
-        <v>14.3861232177514</v>
+        <v>0.3864905736767124</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>9.840817511637272</v>
       </c>
       <c r="AT13" t="n">
-        <v>15.25468863532261</v>
+        <v>6.153078246865663</v>
       </c>
       <c r="AU13" t="n">
-        <v>22.53849778278001</v>
+        <v>2.046345174719468</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>2.34516474356207</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.221514099913942</v>
+        <v>9.802459958870344</v>
       </c>
       <c r="AX13" t="n">
-        <v>14.89294206230377</v>
+        <v>4.542918996381373</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7318413621576</v>
+        <v>8.979681560399563</v>
       </c>
       <c r="D14" t="n">
-        <v>62.11056940563734</v>
+        <v>40.75183950058005</v>
       </c>
       <c r="E14" t="n">
-        <v>16.64791775709846</v>
+        <v>29.37673306864819</v>
       </c>
       <c r="F14" t="n">
-        <v>19.51758261807986</v>
+        <v>38.47357980846401</v>
       </c>
       <c r="G14" t="n">
-        <v>24.29913620309721</v>
+        <v>12.19914952249723</v>
       </c>
       <c r="H14" t="n">
-        <v>9.896564199972717</v>
+        <v>136.3358155880691</v>
       </c>
       <c r="I14" t="n">
-        <v>32.17641224755167</v>
+        <v>181.4514312107422</v>
       </c>
       <c r="J14" t="n">
-        <v>9.508346864888424</v>
+        <v>0.0893180569143972</v>
       </c>
       <c r="K14" t="n">
-        <v>78.94876044601895</v>
+        <v>36.43102530758338</v>
       </c>
       <c r="L14" t="n">
-        <v>26.13849421278125</v>
+        <v>110.4292257585485</v>
       </c>
       <c r="M14" t="n">
-        <v>28.60291900929849</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>85.19065678065115</v>
+        <v>98.88696557076564</v>
       </c>
       <c r="O14" t="n">
-        <v>279.0071359234125</v>
+        <v>8.725205273343374</v>
       </c>
       <c r="P14" t="n">
-        <v>9.333848731519339</v>
+        <v>66.81832416957675</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>64.82536006355691</v>
       </c>
       <c r="R14" t="n">
-        <v>56.48091422216618</v>
+        <v>35.04002078243953</v>
       </c>
       <c r="S14" t="n">
-        <v>53.16439783227148</v>
+        <v>144.1903954097816</v>
       </c>
       <c r="T14" t="n">
-        <v>56.36640058097107</v>
+        <v>72.50215168033121</v>
       </c>
       <c r="U14" t="n">
-        <v>95.45105223981879</v>
+        <v>52.43554017850209</v>
       </c>
       <c r="V14" t="n">
-        <v>18.77870008724154</v>
+        <v>23.86912131766964</v>
       </c>
       <c r="W14" t="n">
-        <v>51.93428512922185</v>
+        <v>50.8326780960021</v>
       </c>
       <c r="X14" t="n">
-        <v>63.8788510898685</v>
+        <v>48.54141163711541</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.04182438770709</v>
+        <v>38.70320220714373</v>
       </c>
       <c r="Z14" t="n">
-        <v>64.03908154746192</v>
+        <v>101.4945620884742</v>
       </c>
       <c r="AA14" t="n">
-        <v>58.31409217137721</v>
+        <v>96.37811164946518</v>
       </c>
       <c r="AB14" t="n">
-        <v>81.08968899944834</v>
+        <v>33.12199166955438</v>
       </c>
       <c r="AC14" t="n">
-        <v>125.5273160094256</v>
+        <v>72.82405014842882</v>
       </c>
       <c r="AD14" t="n">
-        <v>117.931847764245</v>
+        <v>108.3900836275527</v>
       </c>
       <c r="AE14" t="n">
-        <v>88.5344734109328</v>
+        <v>105.7530008655375</v>
       </c>
       <c r="AF14" t="n">
-        <v>151.3393450266001</v>
+        <v>71.5540280147866</v>
       </c>
       <c r="AG14" t="n">
-        <v>56.26133316512089</v>
+        <v>75.29231393919117</v>
       </c>
       <c r="AH14" t="n">
-        <v>119.0056286974006</v>
+        <v>79.74782870255665</v>
       </c>
       <c r="AI14" t="n">
-        <v>56.66595432093333</v>
+        <v>98.36095717072253</v>
       </c>
       <c r="AJ14" t="n">
-        <v>94.84901128427816</v>
+        <v>52.94338338949021</v>
       </c>
       <c r="AK14" t="n">
-        <v>61.7167542657382</v>
+        <v>101.6742623349242</v>
       </c>
       <c r="AL14" t="n">
-        <v>65.92791802517891</v>
+        <v>88.23732060271296</v>
       </c>
       <c r="AM14" t="n">
-        <v>30.33572940203396</v>
+        <v>93.19031709671201</v>
       </c>
       <c r="AN14" t="n">
-        <v>33.07461240196619</v>
+        <v>31.70439252916043</v>
       </c>
       <c r="AO14" t="n">
-        <v>31.98092570491255</v>
+        <v>37.71125707056119</v>
       </c>
       <c r="AP14" t="n">
-        <v>32.35027251596887</v>
+        <v>12.52961972045605</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21.31440660314784</v>
+        <v>26.16510078152093</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.25746573165545</v>
+        <v>28.30013740785289</v>
       </c>
       <c r="AS14" t="n">
-        <v>46.13489855283093</v>
+        <v>16.37624869673182</v>
       </c>
       <c r="AT14" t="n">
-        <v>12.90287904475313</v>
+        <v>23.59484929685426</v>
       </c>
       <c r="AU14" t="n">
-        <v>31.06749161350424</v>
+        <v>25.25569038317145</v>
       </c>
       <c r="AV14" t="n">
-        <v>29.22212149674637</v>
+        <v>28.52769956138391</v>
       </c>
       <c r="AW14" t="n">
-        <v>17.88836477816031</v>
+        <v>27.21491568003487</v>
       </c>
       <c r="AX14" t="n">
-        <v>41.20156944219638</v>
+        <v>23.23084057740505</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.108851617224741</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.606439583449145</v>
+        <v>3.620617256837821</v>
       </c>
       <c r="E15" t="n">
-        <v>3.000258567948852</v>
+        <v>2.898769816338649</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.220136206057113</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.5153938050183404</v>
       </c>
       <c r="I15" t="n">
-        <v>12.12843324677189</v>
+        <v>5.975907654092775</v>
       </c>
       <c r="J15" t="n">
-        <v>2.417069304851505</v>
+        <v>2.674860332123709</v>
       </c>
       <c r="K15" t="n">
-        <v>2.068822215965354</v>
+        <v>0.3359376274961595</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5529986674976977</v>
+        <v>1.826788410944209</v>
       </c>
       <c r="M15" t="n">
-        <v>6.311379325638376</v>
+        <v>6.169723039320072</v>
       </c>
       <c r="N15" t="n">
-        <v>1.50875272845872</v>
+        <v>1.507219241866438</v>
       </c>
       <c r="O15" t="n">
-        <v>2.955676509763969</v>
+        <v>1.790178351938684</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5805378980585141</v>
+        <v>6.176735745796722</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.684560085346004</v>
+        <v>18.10395815240296</v>
       </c>
       <c r="R15" t="n">
-        <v>3.519360820435318</v>
+        <v>5.76452717258</v>
       </c>
       <c r="S15" t="n">
-        <v>8.64348414708514</v>
+        <v>8.46063370061181</v>
       </c>
       <c r="T15" t="n">
-        <v>2.929508492436502</v>
+        <v>0.3402247357217287</v>
       </c>
       <c r="U15" t="n">
-        <v>2.089064727512181</v>
+        <v>4.296012117118584</v>
       </c>
       <c r="V15" t="n">
-        <v>2.800321854031251</v>
+        <v>7.211443677418506</v>
       </c>
       <c r="W15" t="n">
-        <v>3.471494478726799</v>
+        <v>3.321732851460792</v>
       </c>
       <c r="X15" t="n">
-        <v>1.986402559606828</v>
+        <v>1.698757093443154</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.131324407315576</v>
+        <v>5.625145122085264</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.874455224201779</v>
+        <v>4.664114857696555</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.161068668698613</v>
+        <v>3.831242868334882</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.914486269444804</v>
+        <v>5.009762022765446</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.131194579220192</v>
+        <v>6.379466131759098</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.260109466398945</v>
+        <v>3.798795563104544</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.478386461204944</v>
+        <v>7.33249534152343</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.923808810797923</v>
+        <v>6.035528298973054</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.737167632116439</v>
+        <v>10.71792589454585</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.488288098953014</v>
+        <v>2.169179931831266</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.479205316791526</v>
+        <v>6.373763635356049</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.861062803497433</v>
+        <v>8.645004485282213</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.708724782892054</v>
+        <v>3.993622518977043</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.407668209957327</v>
+        <v>6.720677246195808</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.172267611953511</v>
+        <v>6.752507801922095</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.594998537443596</v>
+        <v>4.161144258293958</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.178468269314305</v>
+        <v>2.435738840062939</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.071948457338852</v>
+        <v>6.544941662566676</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5.611938048482787</v>
+        <v>4.686701832877017</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.954254158568116</v>
+        <v>5.083159946342595</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.186855347601159</v>
+        <v>1.243352855388655</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.792159570115398</v>
+        <v>2.229804354433663</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>8.43520084236685</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.783620379513375</v>
+        <v>3.184356284115098</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.486863109726537</v>
+        <v>4.446672896293114</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.536264735446904</v>
+        <v>3.294225862394636</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>9.760940486483122</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.561971498431117</v>
+        <v>14.74808676334305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2866234899129427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.26815897067733</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.248666403411962</v>
+        <v>18.40312170594915</v>
       </c>
       <c r="H16" t="n">
-        <v>5.597585729431406</v>
+        <v>73.09218645290399</v>
       </c>
       <c r="I16" t="n">
-        <v>4.048682242435877</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.58720650261296</v>
+        <v>170.533872905159</v>
       </c>
       <c r="K16" t="n">
-        <v>82.71400850058028</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>20.16881858275405</v>
+        <v>19.00987786123098</v>
       </c>
       <c r="M16" t="n">
-        <v>25.35413710662251</v>
+        <v>20.806857509042</v>
       </c>
       <c r="N16" t="n">
-        <v>130.161164373626</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.42978569885408</v>
+        <v>248.4544790625168</v>
       </c>
       <c r="P16" t="n">
-        <v>165.6779766558192</v>
+        <v>17.69451201755269</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.1713523997308</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.99522062310902</v>
+        <v>85.0732113910644</v>
       </c>
       <c r="S16" t="n">
-        <v>38.17225050825473</v>
+        <v>42.17202784853902</v>
       </c>
       <c r="T16" t="n">
-        <v>54.80916308092324</v>
+        <v>120.0644004086067</v>
       </c>
       <c r="U16" t="n">
-        <v>43.69715900477527</v>
+        <v>13.97463780538818</v>
       </c>
       <c r="V16" t="n">
-        <v>47.80054694953128</v>
+        <v>49.65509002931787</v>
       </c>
       <c r="W16" t="n">
-        <v>55.74601721300562</v>
+        <v>48.77614686322925</v>
       </c>
       <c r="X16" t="n">
-        <v>60.59408295295855</v>
+        <v>52.80243883803676</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.45374051501733</v>
+        <v>69.95020117233898</v>
       </c>
       <c r="Z16" t="n">
-        <v>62.85480295723717</v>
+        <v>120.1946355821388</v>
       </c>
       <c r="AA16" t="n">
-        <v>34.4640225028574</v>
+        <v>91.80582722636601</v>
       </c>
       <c r="AB16" t="n">
-        <v>38.37300208539973</v>
+        <v>68.20222801627125</v>
       </c>
       <c r="AC16" t="n">
-        <v>94.95510545242216</v>
+        <v>107.2353768739286</v>
       </c>
       <c r="AD16" t="n">
-        <v>124.1335569794861</v>
+        <v>210.689069171999</v>
       </c>
       <c r="AE16" t="n">
-        <v>71.61971430551984</v>
+        <v>124.1954128894914</v>
       </c>
       <c r="AF16" t="n">
-        <v>35.14251089099859</v>
+        <v>24.7765403998595</v>
       </c>
       <c r="AG16" t="n">
-        <v>48.24614355024288</v>
+        <v>73.58647440269705</v>
       </c>
       <c r="AH16" t="n">
-        <v>87.53567330489517</v>
+        <v>50.01420148260891</v>
       </c>
       <c r="AI16" t="n">
-        <v>54.41207705909058</v>
+        <v>21.20206040147101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44.99291853378603</v>
+        <v>48.42756396641278</v>
       </c>
       <c r="AK16" t="n">
-        <v>53.35914363005383</v>
+        <v>29.45348219067789</v>
       </c>
       <c r="AL16" t="n">
-        <v>42.07065344021117</v>
+        <v>49.30381555000967</v>
       </c>
       <c r="AM16" t="n">
-        <v>5.744681014284321</v>
+        <v>40.55789867283971</v>
       </c>
       <c r="AN16" t="n">
-        <v>25.16958963155686</v>
+        <v>46.9620303765713</v>
       </c>
       <c r="AO16" t="n">
-        <v>26.04430238780626</v>
+        <v>14.35469433414741</v>
       </c>
       <c r="AP16" t="n">
-        <v>11.64329013894632</v>
+        <v>33.7569413019435</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.69747586674903</v>
+        <v>12.31236496415826</v>
       </c>
       <c r="AR16" t="n">
-        <v>11.64537747733061</v>
+        <v>16.92864022728806</v>
       </c>
       <c r="AS16" t="n">
-        <v>8.00249727688681</v>
+        <v>11.32105315089221</v>
       </c>
       <c r="AT16" t="n">
-        <v>12.28810581729212</v>
+        <v>8.288463336569512</v>
       </c>
       <c r="AU16" t="n">
-        <v>13.46863664272629</v>
+        <v>15.81766074139331</v>
       </c>
       <c r="AV16" t="n">
-        <v>14.6491304254063</v>
+        <v>11.99709023484115</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.959757477289095</v>
+        <v>9.118158026992447</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.420860244754644</v>
+        <v>6.593395847675673</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>21.97159033194798</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35.76311272164965</v>
+        <v>17.47789198792167</v>
       </c>
       <c r="E17" t="n">
-        <v>29.10805681860918</v>
+        <v>15.00613153352374</v>
       </c>
       <c r="F17" t="n">
-        <v>77.81269566396263</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>55.49378014654121</v>
+        <v>18.04750168014566</v>
       </c>
       <c r="H17" t="n">
-        <v>14.36388399482935</v>
+        <v>44.41175358995272</v>
       </c>
       <c r="I17" t="n">
-        <v>24.58811369064804</v>
+        <v>90.18561589512012</v>
       </c>
       <c r="J17" t="n">
-        <v>11.05295852013927</v>
+        <v>30.31339887714909</v>
       </c>
       <c r="K17" t="n">
-        <v>87.29644472610107</v>
+        <v>91.54875092844833</v>
       </c>
       <c r="L17" t="n">
-        <v>4.117129735546427</v>
+        <v>38.18125573327708</v>
       </c>
       <c r="M17" t="n">
-        <v>300.4395205602783</v>
+        <v>80.45035693661431</v>
       </c>
       <c r="N17" t="n">
-        <v>42.32756584582113</v>
+        <v>67.88374725099696</v>
       </c>
       <c r="O17" t="n">
-        <v>25.54851327974324</v>
+        <v>19.2304568760102</v>
       </c>
       <c r="P17" t="n">
-        <v>11.19186724538216</v>
+        <v>163.5313551858217</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.41215988126621</v>
+        <v>34.52186705258939</v>
       </c>
       <c r="R17" t="n">
-        <v>33.65043920705889</v>
+        <v>28.63760174783532</v>
       </c>
       <c r="S17" t="n">
-        <v>68.25977178694951</v>
+        <v>73.46397141153233</v>
       </c>
       <c r="T17" t="n">
-        <v>46.75916957805795</v>
+        <v>46.60886056303612</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>57.77309215401527</v>
       </c>
       <c r="V17" t="n">
-        <v>83.76591502622021</v>
+        <v>45.68520274095603</v>
       </c>
       <c r="W17" t="n">
-        <v>95.48154065609899</v>
+        <v>41.48713648428392</v>
       </c>
       <c r="X17" t="n">
-        <v>73.23812953983197</v>
+        <v>14.30245946043385</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.23216894915986</v>
+        <v>76.14250711854257</v>
       </c>
       <c r="Z17" t="n">
-        <v>55.50666919370218</v>
+        <v>26.98265782762176</v>
       </c>
       <c r="AA17" t="n">
-        <v>37.93433573667525</v>
+        <v>91.50880484389025</v>
       </c>
       <c r="AB17" t="n">
-        <v>21.91382749864533</v>
+        <v>62.65130914216554</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.80069894748568</v>
+        <v>26.50903215187096</v>
       </c>
       <c r="AD17" t="n">
-        <v>34.05766966024151</v>
+        <v>16.52595779047121</v>
       </c>
       <c r="AE17" t="n">
-        <v>36.01169904782342</v>
+        <v>35.19698094951946</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.7977811656178</v>
+        <v>54.56847899203938</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>50.30132743597436</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.82683869990711</v>
+        <v>54.78119458144747</v>
       </c>
       <c r="AI17" t="n">
-        <v>46.83343804903937</v>
+        <v>18.30425100988093</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>27.33521605307785</v>
       </c>
       <c r="AK17" t="n">
-        <v>23.14948349192114</v>
+        <v>35.32885703984631</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.251052233641373</v>
+        <v>34.98097533689271</v>
       </c>
       <c r="AM17" t="n">
-        <v>14.20619679869636</v>
+        <v>20.63648897909935</v>
       </c>
       <c r="AN17" t="n">
-        <v>40.11902959461745</v>
+        <v>30.97364830054957</v>
       </c>
       <c r="AO17" t="n">
-        <v>30.52078836532054</v>
+        <v>30.85362656262628</v>
       </c>
       <c r="AP17" t="n">
-        <v>25.92170693514228</v>
+        <v>23.48343322518248</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22.31023627247347</v>
+        <v>14.28621795426719</v>
       </c>
       <c r="AR17" t="n">
-        <v>37.45271520633252</v>
+        <v>22.75261554726125</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.512696758469039</v>
+        <v>21.19403887117291</v>
       </c>
       <c r="AT17" t="n">
-        <v>24.1342718680942</v>
+        <v>32.18291231344148</v>
       </c>
       <c r="AU17" t="n">
-        <v>18.24631979515486</v>
+        <v>3.723024015000453</v>
       </c>
       <c r="AV17" t="n">
-        <v>16.57209589063105</v>
+        <v>30.98620958354871</v>
       </c>
       <c r="AW17" t="n">
-        <v>23.59649335585379</v>
+        <v>8.694854472492715</v>
       </c>
       <c r="AX17" t="n">
-        <v>25.16998822612523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.9026815855377</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>6.047982224749921</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.006203069439204</v>
+        <v>5.065025509359426</v>
       </c>
       <c r="F18" t="n">
-        <v>4.651062916548807</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.319526459415822</v>
+        <v>5.182841017161159</v>
       </c>
       <c r="H18" t="n">
-        <v>6.142831582173359</v>
+        <v>1.495117318525373</v>
       </c>
       <c r="I18" t="n">
-        <v>27.3931063941612</v>
+        <v>13.87029319783594</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.841130642893583</v>
       </c>
       <c r="K18" t="n">
-        <v>2.184073226858027</v>
+        <v>9.66875557056486</v>
       </c>
       <c r="L18" t="n">
-        <v>17.51873077247819</v>
+        <v>16.48759096417692</v>
       </c>
       <c r="M18" t="n">
-        <v>14.46480246633925</v>
+        <v>25.17987824482497</v>
       </c>
       <c r="N18" t="n">
-        <v>28.52085750640294</v>
+        <v>51.67685116057366</v>
       </c>
       <c r="O18" t="n">
-        <v>20.78119272748094</v>
+        <v>31.60090849436549</v>
       </c>
       <c r="P18" t="n">
-        <v>13.11096602502866</v>
+        <v>27.29695022199865</v>
       </c>
       <c r="Q18" t="n">
-        <v>17.3179626863759</v>
+        <v>10.31455638721276</v>
       </c>
       <c r="R18" t="n">
-        <v>82.67784856712315</v>
+        <v>24.82042338628492</v>
       </c>
       <c r="S18" t="n">
-        <v>12.03107775294835</v>
+        <v>17.51952357035659</v>
       </c>
       <c r="T18" t="n">
-        <v>12.39908772319424</v>
+        <v>127.6477688068686</v>
       </c>
       <c r="U18" t="n">
-        <v>7.026519156987255</v>
+        <v>9.117079804817989</v>
       </c>
       <c r="V18" t="n">
-        <v>53.98368291944634</v>
+        <v>43.71227136549771</v>
       </c>
       <c r="W18" t="n">
-        <v>10.53873188690544</v>
+        <v>12.58620226392037</v>
       </c>
       <c r="X18" t="n">
-        <v>15.50255358351149</v>
+        <v>14.40256015465113</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.98280551330032</v>
+        <v>15.50910860933904</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.7951673866769</v>
+        <v>24.12685460037765</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.57820304626297</v>
+        <v>3.576912201577078</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.863359143110026</v>
+        <v>13.91379964754101</v>
       </c>
       <c r="AC18" t="n">
-        <v>41.51268239426913</v>
+        <v>55.21298893026402</v>
       </c>
       <c r="AD18" t="n">
-        <v>25.10582200617961</v>
+        <v>12.40794306033599</v>
       </c>
       <c r="AE18" t="n">
-        <v>18.45259782011627</v>
+        <v>17.72240084723485</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.89132241299362</v>
+        <v>32.64348350944449</v>
       </c>
       <c r="AG18" t="n">
-        <v>5.546806522754242</v>
+        <v>9.023665044736466</v>
       </c>
       <c r="AH18" t="n">
-        <v>22.75513902384061</v>
+        <v>5.651413925250248</v>
       </c>
       <c r="AI18" t="n">
-        <v>20.43949175236685</v>
+        <v>12.86207028769447</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.157415877513405</v>
+        <v>13.89712466207841</v>
       </c>
       <c r="AK18" t="n">
-        <v>5.684341308582431</v>
+        <v>1.401683395561847</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.314843747496623</v>
+        <v>2.166716592667934</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.057694941603089</v>
+        <v>4.563937219105705</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.194635747662761</v>
+        <v>0.6031332869675444</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.806414072108409</v>
+        <v>5.289922794934287</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.17915834335289</v>
+        <v>6.011073973715217</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.558543321443996</v>
+        <v>2.623687559564902</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.765981078763014</v>
+        <v>1.594052618693608</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.446179942638781</v>
+        <v>2.230091775944641</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6867860806011147</v>
+        <v>5.01703709901019</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.252748453614402</v>
+        <v>3.046406052292994</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.4861370545050003</v>
+        <v>2.11784781288385</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.934924717533586</v>
+        <v>3.942382714011688</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.635983327692847</v>
+        <v>0.7090689762302458</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>23.21367271051084</v>
+        <v>4.285385111755961</v>
       </c>
       <c r="D19" t="n">
-        <v>5.093819257659492</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.032931787956604</v>
+        <v>17.95518394477013</v>
       </c>
       <c r="F19" t="n">
-        <v>33.76252407719426</v>
+        <v>12.34455583166647</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02277597048474</v>
+        <v>5.655178054876699</v>
       </c>
       <c r="H19" t="n">
-        <v>70.4902046676273</v>
+        <v>33.88017906027849</v>
       </c>
       <c r="I19" t="n">
-        <v>18.32674443845637</v>
+        <v>25.589737897306</v>
       </c>
       <c r="J19" t="n">
-        <v>3.12923155212642</v>
+        <v>24.17217534389155</v>
       </c>
       <c r="K19" t="n">
-        <v>56.73412643127968</v>
+        <v>37.68330453005035</v>
       </c>
       <c r="L19" t="n">
-        <v>68.71467600620775</v>
+        <v>20.62723485790256</v>
       </c>
       <c r="M19" t="n">
-        <v>2.6471838639161</v>
+        <v>47.42614023002817</v>
       </c>
       <c r="N19" t="n">
-        <v>107.314044809224</v>
+        <v>45.19236228132347</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>17.23974462466115</v>
       </c>
       <c r="P19" t="n">
-        <v>39.67406345582694</v>
+        <v>12.74472899466191</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.46945034616992</v>
+        <v>96.69127791534112</v>
       </c>
       <c r="R19" t="n">
-        <v>33.37475285270485</v>
+        <v>87.13063459432071</v>
       </c>
       <c r="S19" t="n">
-        <v>33.13846055913434</v>
+        <v>26.62710366225172</v>
       </c>
       <c r="T19" t="n">
-        <v>18.75060782323809</v>
+        <v>79.79701084685188</v>
       </c>
       <c r="U19" t="n">
-        <v>32.44370020605623</v>
+        <v>52.5051062812455</v>
       </c>
       <c r="V19" t="n">
-        <v>21.19797283480178</v>
+        <v>41.6978504771872</v>
       </c>
       <c r="W19" t="n">
-        <v>37.80632540105021</v>
+        <v>0.05405973777087159</v>
       </c>
       <c r="X19" t="n">
-        <v>24.55632778041146</v>
+        <v>46.04336476698334</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.347992348720425</v>
+        <v>23.33289440948307</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.67157051119513</v>
+        <v>12.10810181581989</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.772621797025251</v>
+        <v>4.507910956829944</v>
       </c>
       <c r="AB19" t="n">
-        <v>30.2411127876508</v>
+        <v>1.80729182688787</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>21.01317283685844</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.98595282038947</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.402295981404402</v>
+        <v>17.04188640143634</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.39482254867252</v>
+        <v>32.01188885746023</v>
       </c>
       <c r="AG19" t="n">
-        <v>28.48946653835963</v>
+        <v>21.99795221688609</v>
       </c>
       <c r="AH19" t="n">
-        <v>24.52757957318754</v>
+        <v>0.1958457410645403</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.06697944570581837</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11.86588956485524</v>
+        <v>4.435141160094176</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.106299577542696</v>
+        <v>3.944429403170274</v>
       </c>
       <c r="AL19" t="n">
-        <v>17.68020066939517</v>
+        <v>8.590772409136003</v>
       </c>
       <c r="AM19" t="n">
-        <v>71.87216726682398</v>
+        <v>8.082607393027956</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.215040859158897</v>
+        <v>2.672647524880573</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>2.191719141031637</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.5469809741270995</v>
+        <v>4.446694031181885</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.881251176261194</v>
+        <v>2.4667364875867</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.70901254013167</v>
+        <v>11.39560250775736</v>
       </c>
       <c r="AS19" t="n">
-        <v>8.077482338570199</v>
+        <v>16.59638567458238</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.1084599139026844</v>
+        <v>4.311827787187818</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.778139567122348</v>
+        <v>9.823985652324076</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.097179747712397</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.709860323297631</v>
+        <v>14.07319867189111</v>
       </c>
       <c r="AX19" t="n">
-        <v>25.27977161290972</v>
+        <v>7.469105527384878</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>15.64219562234701</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>26.71923579063854</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.64981808259315</v>
+        <v>2.468899520721494</v>
       </c>
       <c r="F20" t="n">
-        <v>3.736263200195095</v>
+        <v>36.11358046219497</v>
       </c>
       <c r="G20" t="n">
-        <v>60.93005592492086</v>
+        <v>39.64971077524012</v>
       </c>
       <c r="H20" t="n">
-        <v>51.80822665789898</v>
+        <v>28.77475814457994</v>
       </c>
       <c r="I20" t="n">
-        <v>13.54744308903975</v>
+        <v>227.9390789607314</v>
       </c>
       <c r="J20" t="n">
-        <v>7.278922125032118</v>
+        <v>109.298530344848</v>
       </c>
       <c r="K20" t="n">
-        <v>38.68145596078274</v>
+        <v>69.25725798785244</v>
       </c>
       <c r="L20" t="n">
-        <v>20.72120806564072</v>
+        <v>26.91495982961607</v>
       </c>
       <c r="M20" t="n">
-        <v>30.53422726646075</v>
+        <v>85.55986177871284</v>
       </c>
       <c r="N20" t="n">
-        <v>70.16724854753689</v>
+        <v>80.03243678371683</v>
       </c>
       <c r="O20" t="n">
-        <v>47.16634612400743</v>
+        <v>49.93008588266686</v>
       </c>
       <c r="P20" t="n">
-        <v>55.02349331696866</v>
+        <v>37.89397576377685</v>
       </c>
       <c r="Q20" t="n">
-        <v>47.89722855259172</v>
+        <v>57.14442971203448</v>
       </c>
       <c r="R20" t="n">
-        <v>53.63261457197944</v>
+        <v>48.67037219034538</v>
       </c>
       <c r="S20" t="n">
-        <v>71.54803400337741</v>
+        <v>93.08831747559525</v>
       </c>
       <c r="T20" t="n">
-        <v>60.70731245793525</v>
+        <v>42.43965499465565</v>
       </c>
       <c r="U20" t="n">
-        <v>45.36508972305141</v>
+        <v>37.83061953404567</v>
       </c>
       <c r="V20" t="n">
-        <v>81.62879245797919</v>
+        <v>30.16068174355127</v>
       </c>
       <c r="W20" t="n">
-        <v>55.18610683791495</v>
+        <v>48.45319201547753</v>
       </c>
       <c r="X20" t="n">
-        <v>184.0714409829686</v>
+        <v>64.18876988657418</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.40402056383082</v>
+        <v>85.46105104452964</v>
       </c>
       <c r="Z20" t="n">
-        <v>127.4284600115177</v>
+        <v>56.15261991420667</v>
       </c>
       <c r="AA20" t="n">
-        <v>72.12814815221607</v>
+        <v>130.3513324665175</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.10950211926087</v>
+        <v>77.72838824683421</v>
       </c>
       <c r="AC20" t="n">
-        <v>64.43446377633194</v>
+        <v>119.8292405862205</v>
       </c>
       <c r="AD20" t="n">
-        <v>175.0994798354867</v>
+        <v>78.16027877114317</v>
       </c>
       <c r="AE20" t="n">
-        <v>97.22480128789817</v>
+        <v>71.48754157875116</v>
       </c>
       <c r="AF20" t="n">
-        <v>50.06410550746894</v>
+        <v>131.5143138604242</v>
       </c>
       <c r="AG20" t="n">
-        <v>100.1683161312451</v>
+        <v>131.7473580092152</v>
       </c>
       <c r="AH20" t="n">
-        <v>45.02835151613527</v>
+        <v>215.3680201655073</v>
       </c>
       <c r="AI20" t="n">
-        <v>52.18523638666893</v>
+        <v>58.35439494300771</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50.46377632334882</v>
+        <v>68.86215967131686</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.72901109854735</v>
+        <v>35.88692615383444</v>
       </c>
       <c r="AL20" t="n">
-        <v>39.74638897744642</v>
+        <v>82.4779796307806</v>
       </c>
       <c r="AM20" t="n">
-        <v>66.95907951140479</v>
+        <v>29.5365029027266</v>
       </c>
       <c r="AN20" t="n">
-        <v>53.74000485993926</v>
+        <v>13.49542168392127</v>
       </c>
       <c r="AO20" t="n">
-        <v>21.37361504467975</v>
+        <v>30.38109106158246</v>
       </c>
       <c r="AP20" t="n">
-        <v>18.48016873821203</v>
+        <v>34.33115113780279</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.95630517977746</v>
+        <v>15.80776850140141</v>
       </c>
       <c r="AR20" t="n">
-        <v>29.40312456510462</v>
+        <v>23.31353515965085</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.38406927793683</v>
+        <v>39.00814050568587</v>
       </c>
       <c r="AT20" t="n">
-        <v>15.30363568283191</v>
+        <v>11.94201075148676</v>
       </c>
       <c r="AU20" t="n">
-        <v>26.81946733914871</v>
+        <v>27.18638364781406</v>
       </c>
       <c r="AV20" t="n">
-        <v>24.56942315639562</v>
+        <v>20.98682943796979</v>
       </c>
       <c r="AW20" t="n">
-        <v>31.14869618245601</v>
+        <v>21.74702912179964</v>
       </c>
       <c r="AX20" t="n">
-        <v>17.29782488970036</v>
+        <v>25.41211687338663</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.725903140060772</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.007905117886684</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.480909435784658</v>
+        <v>1.505172341199632</v>
       </c>
       <c r="F21" t="n">
-        <v>2.251248722336749</v>
+        <v>0.5251722096264082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7431813667677269</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.577903211758259</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.183200661256738</v>
+        <v>3.154087470357172</v>
       </c>
       <c r="J21" t="n">
-        <v>15.91556149706823</v>
+        <v>4.446608862160415</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4975508241597394</v>
+        <v>1.071893824933345</v>
       </c>
       <c r="L21" t="n">
-        <v>5.808272425391755</v>
+        <v>3.588851533757921</v>
       </c>
       <c r="M21" t="n">
-        <v>3.080991929644814</v>
+        <v>4.843042032435578</v>
       </c>
       <c r="N21" t="n">
-        <v>5.488498566576395</v>
+        <v>3.395963304697633</v>
       </c>
       <c r="O21" t="n">
-        <v>6.487715666515808</v>
+        <v>8.519500799270316</v>
       </c>
       <c r="P21" t="n">
-        <v>10.19212482428902</v>
+        <v>10.27155576252649</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.230058442360017</v>
+        <v>1.934186813607974</v>
       </c>
       <c r="R21" t="n">
-        <v>2.044033344339346</v>
+        <v>5.776100280673288</v>
       </c>
       <c r="S21" t="n">
-        <v>2.840729822780606</v>
+        <v>4.444156543788959</v>
       </c>
       <c r="T21" t="n">
-        <v>7.491617619756926</v>
+        <v>3.057941625229738</v>
       </c>
       <c r="U21" t="n">
-        <v>4.718659890125782</v>
+        <v>2.831819773269387</v>
       </c>
       <c r="V21" t="n">
-        <v>2.870007842568604</v>
+        <v>5.15822779795408</v>
       </c>
       <c r="W21" t="n">
-        <v>11.30870316141731</v>
+        <v>6.026433537771992</v>
       </c>
       <c r="X21" t="n">
-        <v>4.60352244659527</v>
+        <v>2.395177391571714</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.345851850865474</v>
+        <v>3.318076569552181</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.285040829967875</v>
+        <v>4.550342238069929</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.008657066145178</v>
+        <v>5.222564473430551</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.430618867413875</v>
+        <v>5.295127183041716</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.239553880299176</v>
+        <v>9.730339143742397</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.235906461018998</v>
+        <v>4.165641442431784</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.264264296990244</v>
+        <v>5.817201014251626</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.407702807790206</v>
+        <v>4.104511703419443</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.666338169540202</v>
+        <v>6.208337168941786</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.870678826930058</v>
+        <v>7.381181955438095</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.166462618855531</v>
+        <v>1.259431386257315</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.914451457698647</v>
+        <v>9.99264313872632</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.740723073181329</v>
+        <v>2.45664431539279</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.147391351300614</v>
+        <v>3.889233294250282</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.72856553115526</v>
+        <v>6.164068211121606</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.52510395920468</v>
+        <v>5.276816501617061</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.327238317138668</v>
+        <v>4.207190824346451</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.541872639905286</v>
+        <v>2.069314288220186</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.883987355765184</v>
+        <v>5.575671514039048</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.772200447181934</v>
+        <v>0.07587910952631854</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.597797646562438</v>
+        <v>1.235441113552535</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.714400536721116</v>
+        <v>0.656587723880886</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.910870341670936</v>
+        <v>3.311264033358602</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>5.056712100221408</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.281429224358821</v>
+        <v>11.16607754758729</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.575320473591963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>7.861365785530039</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>20.34648010331066</v>
+        <v>10.92000661752796</v>
       </c>
       <c r="E22" t="n">
-        <v>7.611773760670918</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21.68926811341156</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.825569090026064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04021272376257</v>
+        <v>0.1322772463596493</v>
       </c>
       <c r="I22" t="n">
-        <v>127.2030823535175</v>
+        <v>18.68273852901623</v>
       </c>
       <c r="J22" t="n">
-        <v>141.6710450109589</v>
+        <v>35.13554471811742</v>
       </c>
       <c r="K22" t="n">
-        <v>150.312980056431</v>
+        <v>153.5074412696068</v>
       </c>
       <c r="L22" t="n">
-        <v>12.64500912078251</v>
+        <v>36.58268797275935</v>
       </c>
       <c r="M22" t="n">
-        <v>10.42612449921703</v>
+        <v>50.38308775786796</v>
       </c>
       <c r="N22" t="n">
-        <v>37.76428970572991</v>
+        <v>110.7830380725344</v>
       </c>
       <c r="O22" t="n">
-        <v>42.74376040738095</v>
+        <v>23.46393163250178</v>
       </c>
       <c r="P22" t="n">
-        <v>68.91221304311142</v>
+        <v>86.34809335656428</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.12956256406387</v>
+        <v>59.16306721773419</v>
       </c>
       <c r="R22" t="n">
-        <v>5.86071432827004</v>
+        <v>14.15983805939141</v>
       </c>
       <c r="S22" t="n">
-        <v>34.92624798849786</v>
+        <v>91.38993666546509</v>
       </c>
       <c r="T22" t="n">
-        <v>22.66669843761799</v>
+        <v>69.50243973746223</v>
       </c>
       <c r="U22" t="n">
-        <v>77.60995529959327</v>
+        <v>56.99907154041188</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.227302271595</v>
       </c>
       <c r="W22" t="n">
-        <v>94.28335225268823</v>
+        <v>50.85697743976626</v>
       </c>
       <c r="X22" t="n">
-        <v>132.8835596705947</v>
+        <v>73.99961986152817</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.62805039689083</v>
+        <v>33.63881045727022</v>
       </c>
       <c r="Z22" t="n">
-        <v>59.36421910172892</v>
+        <v>27.60527257300191</v>
       </c>
       <c r="AA22" t="n">
-        <v>39.1332407122194</v>
+        <v>39.49007088303595</v>
       </c>
       <c r="AB22" t="n">
-        <v>54.89555882722266</v>
+        <v>27.3445096484562</v>
       </c>
       <c r="AC22" t="n">
-        <v>55.75113411271929</v>
+        <v>55.53963650237642</v>
       </c>
       <c r="AD22" t="n">
-        <v>70.88713593736753</v>
+        <v>66.95062133596278</v>
       </c>
       <c r="AE22" t="n">
-        <v>51.74177948146951</v>
+        <v>63.32021120830966</v>
       </c>
       <c r="AF22" t="n">
-        <v>102.7618627474053</v>
+        <v>66.20095573255476</v>
       </c>
       <c r="AG22" t="n">
-        <v>29.02179366708135</v>
+        <v>59.82903713049601</v>
       </c>
       <c r="AH22" t="n">
-        <v>48.23421934642832</v>
+        <v>46.82889305566658</v>
       </c>
       <c r="AI22" t="n">
-        <v>36.44420674909623</v>
+        <v>49.30477084003623</v>
       </c>
       <c r="AJ22" t="n">
-        <v>39.95901623204889</v>
+        <v>48.0602162988982</v>
       </c>
       <c r="AK22" t="n">
-        <v>6.285293122889797</v>
+        <v>37.29574841572263</v>
       </c>
       <c r="AL22" t="n">
-        <v>55.34167289298487</v>
+        <v>68.9245812955501</v>
       </c>
       <c r="AM22" t="n">
-        <v>31.672606730782</v>
+        <v>35.14880813492344</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.76670371176847</v>
+        <v>35.09457842874396</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.31998176897358</v>
+        <v>13.98077276298652</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.83229766103994</v>
+        <v>23.18339121383462</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.311215491199642</v>
+        <v>18.46376076205965</v>
       </c>
       <c r="AR22" t="n">
-        <v>17.83229637717567</v>
+        <v>18.37478926610883</v>
       </c>
       <c r="AS22" t="n">
-        <v>11.38741899121978</v>
+        <v>23.46792709508224</v>
       </c>
       <c r="AT22" t="n">
-        <v>4.633260469259323</v>
+        <v>19.02800063693651</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5697800355891</v>
+        <v>11.86579479485942</v>
       </c>
       <c r="AV22" t="n">
-        <v>15.66486464467566</v>
+        <v>8.01217476480109</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.81712475817824</v>
+        <v>11.85004266463759</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.687428257430955</v>
+        <v>4.33909085966724</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.179006182421514</v>
       </c>
       <c r="D23" t="n">
-        <v>15.37290680134747</v>
+        <v>7.616133235107059</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.65486124781977</v>
+        <v>13.42060248775498</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>24.34677066861856</v>
+        <v>29.57494553135779</v>
       </c>
       <c r="I23" t="n">
-        <v>118.2176535451109</v>
+        <v>27.56245901527666</v>
       </c>
       <c r="J23" t="n">
-        <v>36.06213951141586</v>
+        <v>73.80285547152343</v>
       </c>
       <c r="K23" t="n">
-        <v>26.47323493844539</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>106.0221164042525</v>
+        <v>0.8549971660127085</v>
       </c>
       <c r="M23" t="n">
-        <v>45.61421058472398</v>
+        <v>46.95607794464097</v>
       </c>
       <c r="N23" t="n">
-        <v>52.39777664126208</v>
+        <v>20.16042749930848</v>
       </c>
       <c r="O23" t="n">
-        <v>76.67649595768613</v>
+        <v>51.07264106155802</v>
       </c>
       <c r="P23" t="n">
-        <v>41.88454311062645</v>
+        <v>25.95556567350741</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.73822640160327</v>
+        <v>122.5397180745383</v>
       </c>
       <c r="R23" t="n">
-        <v>109.2566312988764</v>
+        <v>178.9411952305355</v>
       </c>
       <c r="S23" t="n">
-        <v>38.97077365511839</v>
+        <v>36.99148318165071</v>
       </c>
       <c r="T23" t="n">
-        <v>87.54538491053943</v>
+        <v>67.2277594727055</v>
       </c>
       <c r="U23" t="n">
-        <v>84.80939310490761</v>
+        <v>47.26863126247442</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>27.23103069798143</v>
       </c>
       <c r="W23" t="n">
-        <v>51.91075601302107</v>
+        <v>36.30238471223979</v>
       </c>
       <c r="X23" t="n">
-        <v>112.3221302723562</v>
+        <v>7.980090299858526</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.60438012974072</v>
+        <v>80.67225864610658</v>
       </c>
       <c r="Z23" t="n">
-        <v>38.46770418864475</v>
+        <v>9.605567702450312</v>
       </c>
       <c r="AA23" t="n">
-        <v>29.00720268864344</v>
+        <v>64.62959709900795</v>
       </c>
       <c r="AB23" t="n">
-        <v>33.29928085933609</v>
+        <v>5.52267573336837</v>
       </c>
       <c r="AC23" t="n">
-        <v>41.19840416524477</v>
+        <v>33.08304183980572</v>
       </c>
       <c r="AD23" t="n">
-        <v>30.88064797775968</v>
+        <v>27.47840292312354</v>
       </c>
       <c r="AE23" t="n">
-        <v>37.06384478229867</v>
+        <v>58.78051063217644</v>
       </c>
       <c r="AF23" t="n">
-        <v>45.97118882614063</v>
+        <v>52.16828003691285</v>
       </c>
       <c r="AG23" t="n">
-        <v>63.23623399706945</v>
+        <v>22.92094124562286</v>
       </c>
       <c r="AH23" t="n">
-        <v>20.306921319969</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.24889237317872</v>
+        <v>21.22165913598108</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13.23233615940423</v>
+        <v>11.69499257745558</v>
       </c>
       <c r="AK23" t="n">
-        <v>49.19776993278357</v>
+        <v>52.75058148665889</v>
       </c>
       <c r="AL23" t="n">
-        <v>23.2928969638509</v>
+        <v>29.71567658112209</v>
       </c>
       <c r="AM23" t="n">
-        <v>45.53384572850825</v>
+        <v>32.88455966079952</v>
       </c>
       <c r="AN23" t="n">
-        <v>32.52781024894858</v>
+        <v>38.89812255710245</v>
       </c>
       <c r="AO23" t="n">
-        <v>51.06501738253026</v>
+        <v>35.87413860771812</v>
       </c>
       <c r="AP23" t="n">
-        <v>26.85692140001804</v>
+        <v>22.39997361935144</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19.72411613531435</v>
+        <v>17.76175041502336</v>
       </c>
       <c r="AR23" t="n">
-        <v>30.00143367136089</v>
+        <v>31.17680446241589</v>
       </c>
       <c r="AS23" t="n">
-        <v>39.70396372072869</v>
+        <v>5.608938921267556</v>
       </c>
       <c r="AT23" t="n">
-        <v>9.366076213186869</v>
+        <v>25.86357685309716</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.497868482195823</v>
+        <v>40.22966305512576</v>
       </c>
       <c r="AV23" t="n">
-        <v>28.69125967735902</v>
+        <v>4.346183250035804</v>
       </c>
       <c r="AW23" t="n">
-        <v>9.914004019204445</v>
+        <v>22.06970016943493</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.70169922711378</v>
+        <v>18.51889826837138</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>5.738059492567956</v>
+        <v>4.809876454460503</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5830284621752361</v>
+        <v>2.425683961529343</v>
       </c>
       <c r="E24" t="n">
-        <v>6.591299123038215</v>
+        <v>6.893174430048833</v>
       </c>
       <c r="F24" t="n">
-        <v>18.60821506594926</v>
+        <v>2.155771142169654</v>
       </c>
       <c r="G24" t="n">
-        <v>17.43147220436011</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>26.59006812412808</v>
+        <v>49.73809761689705</v>
       </c>
       <c r="I24" t="n">
-        <v>14.55096683611345</v>
+        <v>13.29602143787181</v>
       </c>
       <c r="J24" t="n">
-        <v>9.317448869423202</v>
+        <v>9.60789580579981</v>
       </c>
       <c r="K24" t="n">
-        <v>35.30566648031974</v>
+        <v>10.11391226005493</v>
       </c>
       <c r="L24" t="n">
-        <v>38.56940977466098</v>
+        <v>11.1459348300035</v>
       </c>
       <c r="M24" t="n">
-        <v>53.03433176389027</v>
+        <v>13.83453114678805</v>
       </c>
       <c r="N24" t="n">
-        <v>24.16293992548208</v>
+        <v>24.76271864173835</v>
       </c>
       <c r="O24" t="n">
-        <v>20.79645618215217</v>
+        <v>27.09752152020778</v>
       </c>
       <c r="P24" t="n">
-        <v>58.53835316663082</v>
+        <v>78.83254940753706</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.81055325289132</v>
+        <v>24.87902136684327</v>
       </c>
       <c r="R24" t="n">
-        <v>9.066532876648957</v>
+        <v>16.88105238961024</v>
       </c>
       <c r="S24" t="n">
-        <v>36.30325809733618</v>
+        <v>34.15681383569144</v>
       </c>
       <c r="T24" t="n">
-        <v>75.66660021366152</v>
+        <v>34.73743695632895</v>
       </c>
       <c r="U24" t="n">
-        <v>18.62711621400008</v>
+        <v>20.81359923304016</v>
       </c>
       <c r="V24" t="n">
-        <v>10.91552993654509</v>
+        <v>6.679415000691539</v>
       </c>
       <c r="W24" t="n">
-        <v>25.71221399035641</v>
+        <v>45.87517828014083</v>
       </c>
       <c r="X24" t="n">
-        <v>9.472507955108053</v>
+        <v>40.29725014237277</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.09032476470376</v>
+        <v>11.80749124979298</v>
       </c>
       <c r="Z24" t="n">
-        <v>31.00116646022008</v>
+        <v>8.693841823605212</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.99023892581343</v>
+        <v>18.34563474654935</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.67775371672313</v>
+        <v>11.7435297039893</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.84663096945726</v>
+        <v>19.11689025984114</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.66564538415105</v>
+        <v>17.25879482689333</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.148859622523393</v>
+        <v>3.542048160490524</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.79596342516813</v>
+        <v>17.00809006847206</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.951405922923545</v>
+        <v>12.20692300439038</v>
       </c>
       <c r="AH24" t="n">
-        <v>4.182746752567382</v>
+        <v>21.30985191723102</v>
       </c>
       <c r="AI24" t="n">
-        <v>14.69149872313799</v>
+        <v>8.253195606301118</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.176640178463832</v>
+        <v>11.6740119712788</v>
       </c>
       <c r="AK24" t="n">
-        <v>17.88668795148558</v>
+        <v>12.4468212038563</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.025296096804603</v>
+        <v>8.803413350078165</v>
       </c>
       <c r="AM24" t="n">
-        <v>6.330354796403149</v>
+        <v>3.506427910729343</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.315175190841605</v>
+        <v>3.895015467718974</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.008708680990353</v>
+        <v>3.222844664740374</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.5929370054279841</v>
+        <v>1.037885347838343</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.371279519576084</v>
+        <v>3.665467548184315</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.027244658673487</v>
+        <v>12.73457163691201</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.297849518140063</v>
+        <v>2.520473509178903</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.363729263888099</v>
+        <v>6.38062139971018</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.040150952790883</v>
+        <v>1.889942517885705</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.601959349361656</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.791580960512421</v>
+        <v>3.633318087566948</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.723243717293462</v>
+        <v>0.413717446283441</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>20.00829653380039</v>
+        <v>12.3953152735451</v>
       </c>
       <c r="D25" t="n">
-        <v>1.078273164287252</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.7027634109479</v>
+        <v>2.565338068851903</v>
       </c>
       <c r="F25" t="n">
-        <v>15.00723316842438</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.1319343776368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.096623626426037</v>
+        <v>26.67044211856202</v>
       </c>
       <c r="I25" t="n">
-        <v>39.56478133498938</v>
+        <v>32.68640444368697</v>
       </c>
       <c r="J25" t="n">
-        <v>1.945842068641096</v>
+        <v>29.68705263175591</v>
       </c>
       <c r="K25" t="n">
-        <v>31.5045163198892</v>
+        <v>36.07197551428204</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4271657679780492</v>
+        <v>9.247801281884517</v>
       </c>
       <c r="M25" t="n">
-        <v>7.935215786397522</v>
+        <v>77.00233238855373</v>
       </c>
       <c r="N25" t="n">
-        <v>42.26804947654625</v>
+        <v>10.88893032857221</v>
       </c>
       <c r="O25" t="n">
-        <v>43.37669370655253</v>
+        <v>25.27487391194332</v>
       </c>
       <c r="P25" t="n">
-        <v>78.67447595676404</v>
+        <v>49.7605928521673</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.67399786729022</v>
+        <v>12.15776594587481</v>
       </c>
       <c r="R25" t="n">
-        <v>24.49685564808578</v>
+        <v>46.8081059460773</v>
       </c>
       <c r="S25" t="n">
-        <v>8.555455239282798</v>
+        <v>14.72950899511119</v>
       </c>
       <c r="T25" t="n">
-        <v>35.9527443257597</v>
+        <v>46.07435360800741</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45659840176811</v>
+        <v>38.26779567091921</v>
       </c>
       <c r="V25" t="n">
-        <v>32.2884406865053</v>
+        <v>59.94001237922163</v>
       </c>
       <c r="W25" t="n">
-        <v>5.560903678074508</v>
+        <v>65.55351290798676</v>
       </c>
       <c r="X25" t="n">
-        <v>34.29725607281863</v>
+        <v>59.04045926749614</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.1029019325419</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>18.70229982883639</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.24052680738239</v>
+        <v>18.33990185016134</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.46717942872869</v>
+        <v>19.93211769209195</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.685796435474279</v>
+        <v>5.068200284145834</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.055928494246716</v>
+        <v>2.341158649559622</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.280493377521423</v>
+        <v>0.5361786913829808</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.159531455813966</v>
+        <v>58.11445966446916</v>
       </c>
       <c r="AG25" t="n">
-        <v>29.22569148088582</v>
+        <v>17.50338310965203</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.80969089244487</v>
+        <v>8.643522668348359</v>
       </c>
       <c r="AI25" t="n">
-        <v>21.58468315637561</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4.710497157898556</v>
+        <v>12.00403643838382</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>0.6695277998624429</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.58582156915981</v>
+        <v>17.21161043881314</v>
       </c>
       <c r="AM25" t="n">
-        <v>7.050264253142355</v>
+        <v>2.350513311992656</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.632109620855176</v>
+        <v>3.755013241248821</v>
       </c>
       <c r="AO25" t="n">
-        <v>19.86272229952929</v>
+        <v>2.353983060793065</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.163600715514185</v>
+        <v>7.940150624754926</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17.77203696589386</v>
+        <v>4.297956911936884</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.957653570813436</v>
+        <v>0.693590110306437</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>5.452591592612388</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3031141567365676</v>
+        <v>5.342631420995628</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.132224460461203</v>
+        <v>11.25364438523915</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.06906457078266337</v>
+        <v>3.240811525357947</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.49430915835817</v>
+        <v>23.17016225019509</v>
       </c>
       <c r="AX25" t="n">
-        <v>57.51586825196232</v>
+        <v>16.50004584463966</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>12.33149220792023</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.53125523298157</v>
+        <v>18.98904354372037</v>
       </c>
       <c r="E26" t="n">
-        <v>48.55458128709959</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>33.7484439205936</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.23460243376422</v>
+        <v>21.15549276923391</v>
       </c>
       <c r="H26" t="n">
-        <v>29.31582963424171</v>
+        <v>7.123694964415659</v>
       </c>
       <c r="I26" t="n">
-        <v>46.51057082675531</v>
+        <v>50.06858595092918</v>
       </c>
       <c r="J26" t="n">
-        <v>205.1456821349796</v>
+        <v>5.089155692832797</v>
       </c>
       <c r="K26" t="n">
-        <v>29.05889489451412</v>
+        <v>3.059836370882934</v>
       </c>
       <c r="L26" t="n">
-        <v>31.28360919172037</v>
+        <v>139.724236194706</v>
       </c>
       <c r="M26" t="n">
-        <v>204.0234630186856</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>47.22344706710697</v>
+        <v>57.64741530077404</v>
       </c>
       <c r="O26" t="n">
-        <v>45.55374321707027</v>
+        <v>55.75558891183084</v>
       </c>
       <c r="P26" t="n">
-        <v>63.6926442724889</v>
+        <v>46.86446951628376</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.470580434636</v>
+        <v>6.313289044898617</v>
       </c>
       <c r="R26" t="n">
-        <v>49.71777919840058</v>
+        <v>58.24169604032456</v>
       </c>
       <c r="S26" t="n">
-        <v>72.01223763123593</v>
+        <v>50.20164622085283</v>
       </c>
       <c r="T26" t="n">
-        <v>180.9682926861849</v>
+        <v>1.148482593628664</v>
       </c>
       <c r="U26" t="n">
-        <v>48.86237822723389</v>
+        <v>48.27617035991526</v>
       </c>
       <c r="V26" t="n">
-        <v>80.0991123886586</v>
+        <v>49.14831556748022</v>
       </c>
       <c r="W26" t="n">
-        <v>58.73653326309516</v>
+        <v>26.51115860886672</v>
       </c>
       <c r="X26" t="n">
-        <v>84.1282214761394</v>
+        <v>61.52969434839363</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.50315156309433</v>
+        <v>85.97155825765458</v>
       </c>
       <c r="Z26" t="n">
-        <v>37.62520484389194</v>
+        <v>109.1232642073262</v>
       </c>
       <c r="AA26" t="n">
-        <v>115.6562825437516</v>
+        <v>66.25694222097867</v>
       </c>
       <c r="AB26" t="n">
-        <v>125.1205662399242</v>
+        <v>101.5022993642808</v>
       </c>
       <c r="AC26" t="n">
-        <v>88.07127843274171</v>
+        <v>123.7769193264788</v>
       </c>
       <c r="AD26" t="n">
-        <v>133.9210308658717</v>
+        <v>88.27209956292468</v>
       </c>
       <c r="AE26" t="n">
-        <v>83.66335584052445</v>
+        <v>88.99272196956716</v>
       </c>
       <c r="AF26" t="n">
-        <v>114.2067914073564</v>
+        <v>130.0142085045818</v>
       </c>
       <c r="AG26" t="n">
-        <v>92.88220968332577</v>
+        <v>149.6600984301425</v>
       </c>
       <c r="AH26" t="n">
-        <v>119.4293509797706</v>
+        <v>182.0530414724673</v>
       </c>
       <c r="AI26" t="n">
-        <v>71.86824629602859</v>
+        <v>115.5094771092887</v>
       </c>
       <c r="AJ26" t="n">
-        <v>146.0098360663522</v>
+        <v>41.82600788517353</v>
       </c>
       <c r="AK26" t="n">
-        <v>124.7469077883725</v>
+        <v>64.93259543653348</v>
       </c>
       <c r="AL26" t="n">
-        <v>31.0035057755343</v>
+        <v>98.89685304076181</v>
       </c>
       <c r="AM26" t="n">
-        <v>24.42658884415372</v>
+        <v>48.27137519739355</v>
       </c>
       <c r="AN26" t="n">
-        <v>38.97925772939874</v>
+        <v>48.19682526825682</v>
       </c>
       <c r="AO26" t="n">
-        <v>29.24393576635998</v>
+        <v>12.70623572025303</v>
       </c>
       <c r="AP26" t="n">
-        <v>31.17094968946452</v>
+        <v>32.81951946760079</v>
       </c>
       <c r="AQ26" t="n">
-        <v>20.59174699785452</v>
+        <v>56.9425332804063</v>
       </c>
       <c r="AR26" t="n">
-        <v>18.24644497282253</v>
+        <v>13.35802564183256</v>
       </c>
       <c r="AS26" t="n">
-        <v>25.76820357542727</v>
+        <v>20.46511913515947</v>
       </c>
       <c r="AT26" t="n">
-        <v>19.09824167490042</v>
+        <v>14.33289204727035</v>
       </c>
       <c r="AU26" t="n">
-        <v>14.58333688424062</v>
+        <v>22.3440021989398</v>
       </c>
       <c r="AV26" t="n">
-        <v>12.54126467753136</v>
+        <v>11.40467671531354</v>
       </c>
       <c r="AW26" t="n">
-        <v>10.08860828108285</v>
+        <v>15.27932330845246</v>
       </c>
       <c r="AX26" t="n">
-        <v>16.67753115270027</v>
+        <v>26.45153541654783</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.721665166686547</v>
+        <v>3.410139229675057</v>
       </c>
       <c r="D27" t="n">
-        <v>3.640780521702096</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.094340643569265</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.333368370444642</v>
+        <v>2.841026501330101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7432720200231557</v>
+        <v>3.90008659223431</v>
       </c>
       <c r="H27" t="n">
-        <v>3.383167833628998</v>
+        <v>0.7098161517738396</v>
       </c>
       <c r="I27" t="n">
-        <v>1.531263237597186</v>
+        <v>1.920094812142697</v>
       </c>
       <c r="J27" t="n">
-        <v>3.863819457780441</v>
+        <v>2.984373594963907</v>
       </c>
       <c r="K27" t="n">
-        <v>4.314017667309678</v>
+        <v>4.111352936009411</v>
       </c>
       <c r="L27" t="n">
-        <v>2.597202876497816</v>
+        <v>2.741230675078755</v>
       </c>
       <c r="M27" t="n">
-        <v>1.818724458316928</v>
+        <v>2.102893078779268</v>
       </c>
       <c r="N27" t="n">
-        <v>5.174107320055963</v>
+        <v>5.608867865709218</v>
       </c>
       <c r="O27" t="n">
-        <v>2.011419114817711</v>
+        <v>5.079273295381194</v>
       </c>
       <c r="P27" t="n">
-        <v>6.60851884081388</v>
+        <v>3.506851450349552</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.198318299288162</v>
+        <v>3.326615748655629</v>
       </c>
       <c r="R27" t="n">
-        <v>2.898041799444842</v>
+        <v>2.503139502558595</v>
       </c>
       <c r="S27" t="n">
-        <v>10.86861313685784</v>
+        <v>6.358245881223595</v>
       </c>
       <c r="T27" t="n">
-        <v>1.146431512073498</v>
+        <v>1.139493129984488</v>
       </c>
       <c r="U27" t="n">
-        <v>4.597527474681987</v>
+        <v>2.308589588312653</v>
       </c>
       <c r="V27" t="n">
-        <v>2.437294885466</v>
+        <v>6.080265641573099</v>
       </c>
       <c r="W27" t="n">
-        <v>2.5778909619174</v>
+        <v>5.965861257896085</v>
       </c>
       <c r="X27" t="n">
-        <v>2.563969749939115</v>
+        <v>4.986183297104865</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.90205806482132</v>
+        <v>4.884115442141916</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.84213481852492</v>
+        <v>6.243557167789538</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.231317797683268</v>
+        <v>6.236064421731371</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.881423687111533</v>
+        <v>4.14996275963926</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.904223196119698</v>
+        <v>2.607823774166065</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.705914723144446</v>
+        <v>6.78940724095</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.742524322511134</v>
+        <v>5.828028925814563</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.698575769895847</v>
+        <v>6.303615371869269</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.385490063515715</v>
+        <v>4.237089383682306</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.344465993311807</v>
+        <v>10.58751019446644</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.451606189191477</v>
+        <v>7.117088866772064</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.043240328502693</v>
+        <v>10.22354695458038</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.73166734877085</v>
+        <v>4.400835541140783</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.051277032887474</v>
+        <v>3.145565196049402</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.730883561729246</v>
+        <v>6.254630292070186</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.584872728427801</v>
+        <v>2.661340978552654</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.35000961658484</v>
+        <v>6.796813356450617</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.376764920660524</v>
+        <v>3.589500570577362</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.814573391771162</v>
+        <v>3.297269294800925</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.284008084999534</v>
+        <v>1.857408685879548</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.5497059034812</v>
+        <v>2.467873322300868</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.49472805079235</v>
+        <v>3.241197745006829</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.431828189528437</v>
+        <v>3.485425712140754</v>
       </c>
       <c r="AV27" t="n">
-        <v>7.396839421322666</v>
+        <v>2.521008640587302</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.093610304421934</v>
+        <v>2.026688347225652</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.131908967154693</v>
+        <v>3.191294421494561</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.486678673152994</v>
+        <v>12.49714535207974</v>
       </c>
       <c r="D28" t="n">
-        <v>9.351138794520908</v>
+        <v>7.273839464966668</v>
       </c>
       <c r="E28" t="n">
-        <v>39.15933716608253</v>
+        <v>11.60676733525219</v>
       </c>
       <c r="F28" t="n">
-        <v>11.97234186569546</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.08103768080943</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>17.13716542569865</v>
+        <v>174.7793810656971</v>
       </c>
       <c r="I28" t="n">
-        <v>142.2528283763979</v>
+        <v>1.879993524525666</v>
       </c>
       <c r="J28" t="n">
-        <v>4.458473913661335</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>85.81286393933377</v>
       </c>
       <c r="L28" t="n">
-        <v>44.66207490240195</v>
+        <v>68.23486564595561</v>
       </c>
       <c r="M28" t="n">
-        <v>142.7047285399109</v>
+        <v>57.93032398770714</v>
       </c>
       <c r="N28" t="n">
-        <v>31.51855348472332</v>
+        <v>19.14001373951251</v>
       </c>
       <c r="O28" t="n">
-        <v>86.90299616876895</v>
+        <v>19.24185443330703</v>
       </c>
       <c r="P28" t="n">
-        <v>75.1740933833652</v>
+        <v>45.81648906557001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.5244809449833</v>
+        <v>73.39917266278242</v>
       </c>
       <c r="R28" t="n">
-        <v>43.22939622521022</v>
+        <v>60.81603665028715</v>
       </c>
       <c r="S28" t="n">
-        <v>77.89982759778545</v>
+        <v>38.93305730884102</v>
       </c>
       <c r="T28" t="n">
-        <v>45.15049992723263</v>
+        <v>37.10370552009476</v>
       </c>
       <c r="U28" t="n">
-        <v>64.30599307265641</v>
+        <v>42.73074858489203</v>
       </c>
       <c r="V28" t="n">
-        <v>69.26470499474698</v>
+        <v>45.09210690111784</v>
       </c>
       <c r="W28" t="n">
-        <v>53.47957135655248</v>
+        <v>14.72694175934696</v>
       </c>
       <c r="X28" t="n">
-        <v>65.76108623735958</v>
+        <v>85.95514361480537</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.15200672446255</v>
+        <v>91.98137360042499</v>
       </c>
       <c r="Z28" t="n">
-        <v>52.68471659467774</v>
+        <v>73.77433890508512</v>
       </c>
       <c r="AA28" t="n">
-        <v>59.5922902158124</v>
+        <v>51.50326825942994</v>
       </c>
       <c r="AB28" t="n">
-        <v>88.69926785397624</v>
+        <v>28.29242859796418</v>
       </c>
       <c r="AC28" t="n">
-        <v>71.06151673898141</v>
+        <v>54.78489318729836</v>
       </c>
       <c r="AD28" t="n">
-        <v>91.12450880980836</v>
+        <v>189.71781181192</v>
       </c>
       <c r="AE28" t="n">
-        <v>146.7277364300626</v>
+        <v>14.94410247430744</v>
       </c>
       <c r="AF28" t="n">
-        <v>54.34814637960918</v>
+        <v>94.51842730381354</v>
       </c>
       <c r="AG28" t="n">
-        <v>57.61583339205895</v>
+        <v>125.2962354782877</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.53454169704427</v>
+        <v>56.85936635510413</v>
       </c>
       <c r="AI28" t="n">
-        <v>104.1348041216232</v>
+        <v>20.36086656365958</v>
       </c>
       <c r="AJ28" t="n">
-        <v>78.30048778161549</v>
+        <v>22.99769722077628</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.60941861600323</v>
+        <v>43.6705471171414</v>
       </c>
       <c r="AL28" t="n">
-        <v>31.33424917897008</v>
+        <v>35.48070780373816</v>
       </c>
       <c r="AM28" t="n">
-        <v>34.45682549242764</v>
+        <v>14.60699928903965</v>
       </c>
       <c r="AN28" t="n">
-        <v>28.14636046993799</v>
+        <v>36.703144266665</v>
       </c>
       <c r="AO28" t="n">
-        <v>43.52171273137044</v>
+        <v>15.77867244672755</v>
       </c>
       <c r="AP28" t="n">
-        <v>22.84242725540853</v>
+        <v>37.89648537596898</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19.65584467467421</v>
+        <v>27.0071127125322</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.1705976920064</v>
+        <v>10.93955553048225</v>
       </c>
       <c r="AS28" t="n">
-        <v>11.4209604188259</v>
+        <v>9.710777070315361</v>
       </c>
       <c r="AT28" t="n">
-        <v>14.09151631503386</v>
+        <v>13.77437501035955</v>
       </c>
       <c r="AU28" t="n">
-        <v>18.3754905231683</v>
+        <v>2.762028170019587</v>
       </c>
       <c r="AV28" t="n">
-        <v>2.581489412312146</v>
+        <v>10.10877627301654</v>
       </c>
       <c r="AW28" t="n">
-        <v>6.35819267725395</v>
+        <v>10.76416627040595</v>
       </c>
       <c r="AX28" t="n">
-        <v>12.24582999901711</v>
+        <v>11.11257894766573</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>28.39900614986623</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>10.05292886954354</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>48.73769091394298</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>24.38552325999533</v>
+        <v>0.3594764163642403</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>69.19699076875962</v>
+        <v>30.19576099624583</v>
       </c>
       <c r="I29" t="n">
-        <v>88.22551298267879</v>
+        <v>24.37668759067189</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>42.37051080618975</v>
       </c>
       <c r="K29" t="n">
-        <v>3.33875686877922</v>
+        <v>155.0487587989403</v>
       </c>
       <c r="L29" t="n">
-        <v>39.92823336362035</v>
+        <v>45.04398313315111</v>
       </c>
       <c r="M29" t="n">
-        <v>34.01513465316486</v>
+        <v>45.63898356656707</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.74907981902977</v>
       </c>
       <c r="O29" t="n">
-        <v>168.2644860320129</v>
+        <v>102.9230694471873</v>
       </c>
       <c r="P29" t="n">
-        <v>214.1196514008297</v>
+        <v>21.72535365521001</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.6899653994308</v>
+        <v>117.196375125462</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.6508913065288</v>
       </c>
       <c r="S29" t="n">
-        <v>99.76730285409022</v>
+        <v>23.17724498952607</v>
       </c>
       <c r="T29" t="n">
-        <v>49.91410813472524</v>
+        <v>33.30642623167889</v>
       </c>
       <c r="U29" t="n">
-        <v>45.73673861237745</v>
+        <v>40.01836942057402</v>
       </c>
       <c r="V29" t="n">
-        <v>28.29415516481913</v>
+        <v>67.44397128633712</v>
       </c>
       <c r="W29" t="n">
-        <v>2.09770877459305</v>
+        <v>68.54077217218716</v>
       </c>
       <c r="X29" t="n">
-        <v>35.29473753617366</v>
+        <v>37.26576318467698</v>
       </c>
       <c r="Y29" t="n">
-        <v>163.0130903020919</v>
+        <v>55.42673488823262</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.191239529427399</v>
+        <v>51.01437339813214</v>
       </c>
       <c r="AA29" t="n">
-        <v>36.93787541729167</v>
+        <v>40.38077756231561</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.7138188629816</v>
+        <v>29.69249480025533</v>
       </c>
       <c r="AC29" t="n">
-        <v>53.4757964235077</v>
+        <v>12.11911921103069</v>
       </c>
       <c r="AD29" t="n">
-        <v>28.93113792910933</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>23.95020143723486</v>
+        <v>3.792051136616006</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>13.3514739100408</v>
       </c>
       <c r="AG29" t="n">
-        <v>19.42807524563706</v>
+        <v>16.88653144359452</v>
       </c>
       <c r="AH29" t="n">
-        <v>40.59337951472563</v>
+        <v>18.94914618340699</v>
       </c>
       <c r="AI29" t="n">
-        <v>37.69078550369187</v>
+        <v>44.81100008226531</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32.35170912145923</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.58410612221864</v>
+        <v>36.73994405123516</v>
       </c>
       <c r="AL29" t="n">
-        <v>14.6640996631825</v>
+        <v>17.0437381889047</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>45.12330808970665</v>
       </c>
       <c r="AN29" t="n">
-        <v>42.55291903197833</v>
+        <v>45.43763585110695</v>
       </c>
       <c r="AO29" t="n">
-        <v>29.07409816340798</v>
+        <v>10.09208489908428</v>
       </c>
       <c r="AP29" t="n">
-        <v>22.01606422291817</v>
+        <v>20.99328165655695</v>
       </c>
       <c r="AQ29" t="n">
-        <v>22.738920819514</v>
+        <v>34.80788137579489</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.980947747471311</v>
+        <v>5.072841721682038</v>
       </c>
       <c r="AS29" t="n">
-        <v>27.53577530794881</v>
+        <v>23.43400334101369</v>
       </c>
       <c r="AT29" t="n">
-        <v>17.07532078934395</v>
+        <v>18.4022099545459</v>
       </c>
       <c r="AU29" t="n">
-        <v>34.2929465318561</v>
+        <v>37.11047436033071</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.056617365000848</v>
+        <v>21.49067173473395</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.257241156825256</v>
+        <v>28.51132931548511</v>
       </c>
       <c r="AX29" t="n">
-        <v>11.89853810425018</v>
+        <v>46.97545069629384</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.34162636218416</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.152927478857151</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7133519599196259</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.316676388405471</v>
+        <v>1.508128339182072</v>
       </c>
       <c r="G30" t="n">
-        <v>3.499775400500452</v>
+        <v>4.189342555848264</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75555663268513</v>
+        <v>13.80525164637907</v>
       </c>
       <c r="I30" t="n">
-        <v>9.573497207180466</v>
+        <v>5.769208511654271</v>
       </c>
       <c r="J30" t="n">
-        <v>12.17607679168817</v>
+        <v>62.78188839578603</v>
       </c>
       <c r="K30" t="n">
-        <v>4.368526947675081</v>
+        <v>3.742804392063972</v>
       </c>
       <c r="L30" t="n">
-        <v>40.4856524270443</v>
+        <v>9.742247581393213</v>
       </c>
       <c r="M30" t="n">
-        <v>26.7187933265478</v>
+        <v>33.75795211696858</v>
       </c>
       <c r="N30" t="n">
-        <v>60.59041069559828</v>
+        <v>101.2718789201316</v>
       </c>
       <c r="O30" t="n">
-        <v>28.99431731393813</v>
+        <v>24.29463809365112</v>
       </c>
       <c r="P30" t="n">
-        <v>28.16213848983305</v>
+        <v>20.31206625038244</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.43184045672072</v>
+        <v>13.03173140455088</v>
       </c>
       <c r="R30" t="n">
-        <v>21.27527103304943</v>
+        <v>33.01439606690909</v>
       </c>
       <c r="S30" t="n">
-        <v>57.03926509181714</v>
+        <v>53.79045706642162</v>
       </c>
       <c r="T30" t="n">
-        <v>4.079078423259707</v>
+        <v>13.32628052642568</v>
       </c>
       <c r="U30" t="n">
-        <v>25.34013848381533</v>
+        <v>54.11708061457075</v>
       </c>
       <c r="V30" t="n">
-        <v>3.597862615875378</v>
+        <v>18.46277938473287</v>
       </c>
       <c r="W30" t="n">
-        <v>25.08262100647896</v>
+        <v>12.38769602857399</v>
       </c>
       <c r="X30" t="n">
-        <v>16.83580490757155</v>
+        <v>80.70113226254489</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.05637137905051</v>
+        <v>16.35853047437498</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.70258139329139</v>
+        <v>17.66166182985482</v>
       </c>
       <c r="AA30" t="n">
-        <v>16.35520219171079</v>
+        <v>31.19959347294025</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.50693560247851</v>
+        <v>13.85176740446263</v>
       </c>
       <c r="AC30" t="n">
-        <v>16.96739512077975</v>
+        <v>12.12653962116588</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.739351766725246</v>
+        <v>12.32851806837844</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.874291532251176</v>
+        <v>12.91783355456021</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.23994712729142</v>
+        <v>8.721653534868208</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.56324805298179</v>
+        <v>9.057742723616986</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.766953447354046</v>
+        <v>17.5565164027743</v>
       </c>
       <c r="AI30" t="n">
-        <v>11.34740396370076</v>
+        <v>3.416965686645186</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14.7528163363975</v>
+        <v>17.67982945785491</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.430007748591152</v>
+        <v>7.277730968671136</v>
       </c>
       <c r="AL30" t="n">
-        <v>10.65904162085038</v>
+        <v>6.52359879749502</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.144619666202853</v>
+        <v>12.18775363964388</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.120968251525881</v>
+        <v>6.779516684662124</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.16400863251177</v>
+        <v>4.300254967320804</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.425451456596452</v>
+        <v>2.59863173285497</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.468667885079773</v>
+        <v>4.551740379011469</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.161367187518054</v>
+        <v>2.38991575683225</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.470185433480173</v>
+        <v>3.91332508754465</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.299360655344025</v>
+        <v>5.039466390844979</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.03653100557976519</v>
+        <v>1.408151237227329</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.015227787970543</v>
+        <v>5.057191122068637</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.163553783935686</v>
+        <v>3.940312563590086</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.3110444805205016</v>
+        <v>1.272440965118397</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>21.77285027495142</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.12425444545647</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.73408751131895</v>
+        <v>24.14186073013811</v>
       </c>
       <c r="F31" t="n">
-        <v>12.12231056225821</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.372072136956417</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>21.06901489959196</v>
+        <v>19.11008352423921</v>
       </c>
       <c r="I31" t="n">
-        <v>46.48816210449313</v>
+        <v>20.96336089786261</v>
       </c>
       <c r="J31" t="n">
-        <v>28.85914140281513</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>23.65817774159504</v>
+        <v>47.73441026001035</v>
       </c>
       <c r="L31" t="n">
-        <v>22.09958416690549</v>
+        <v>2.553698957518531</v>
       </c>
       <c r="M31" t="n">
-        <v>14.42491257111447</v>
+        <v>12.19215809774489</v>
       </c>
       <c r="N31" t="n">
-        <v>103.4093500253878</v>
+        <v>12.09117850782319</v>
       </c>
       <c r="O31" t="n">
-        <v>14.84009741891203</v>
+        <v>44.98606356379979</v>
       </c>
       <c r="P31" t="n">
-        <v>58.01677492058367</v>
+        <v>33.2556988033546</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.00834881291992</v>
+        <v>40.24378611475851</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>23.48045420859757</v>
       </c>
       <c r="S31" t="n">
-        <v>14.4831215019415</v>
+        <v>33.99458650676455</v>
       </c>
       <c r="T31" t="n">
-        <v>21.01748404089439</v>
+        <v>23.67258929595536</v>
       </c>
       <c r="U31" t="n">
-        <v>16.8766180413805</v>
+        <v>30.06129179520734</v>
       </c>
       <c r="V31" t="n">
-        <v>46.25193368060259</v>
+        <v>55.11702468880282</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>16.89157144291897</v>
       </c>
       <c r="X31" t="n">
-        <v>32.24327612942741</v>
+        <v>20.18513140392396</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.66083977003237</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>5.01480860646389</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.43741827705378</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>33.16971626949648</v>
+        <v>7.769681695707582</v>
       </c>
       <c r="AC31" t="n">
-        <v>3.494463268556847</v>
+        <v>5.371755952272601</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>4.341464987641871</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.534153010735833</v>
+        <v>7.244093390360038</v>
       </c>
       <c r="AF31" t="n">
-        <v>26.65014047297463</v>
+        <v>16.82306438702698</v>
       </c>
       <c r="AG31" t="n">
-        <v>37.4741742738977</v>
+        <v>9.279398161108565</v>
       </c>
       <c r="AH31" t="n">
-        <v>5.469073932829971</v>
+        <v>14.46098772694654</v>
       </c>
       <c r="AI31" t="n">
-        <v>4.7111301507937</v>
+        <v>15.6692896732035</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.839044056436502</v>
+        <v>10.83230648630724</v>
       </c>
       <c r="AK31" t="n">
-        <v>6.50575158454784</v>
+        <v>6.792570029597152</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.587155553512137</v>
+        <v>34.36739394784523</v>
       </c>
       <c r="AM31" t="n">
-        <v>4.496150546543703</v>
+        <v>2.365386610384076</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.398102918334424</v>
+        <v>7.965337377264451</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.763996656925009</v>
+        <v>1.028577123492922</v>
       </c>
       <c r="AP31" t="n">
-        <v>23.31179261047554</v>
+        <v>16.23655091726404</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18.37112294529297</v>
+        <v>5.542392813690196</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>3.247339688611421</v>
       </c>
       <c r="AS31" t="n">
-        <v>8.599347345292982</v>
+        <v>7.335659736307203</v>
       </c>
       <c r="AT31" t="n">
-        <v>21.24712090261578</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>10.95146253931025</v>
       </c>
       <c r="AV31" t="n">
-        <v>5.193713606874313</v>
+        <v>4.725148178905191</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.1570368952406695</v>
+        <v>3.183580538299059</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.821372997886071</v>
+        <v>6.189506078911618</v>
       </c>
     </row>
   </sheetData>
